--- a/Model_setup/NEISO_data_file/generators.xlsx
+++ b/Model_setup/NEISO_data_file/generators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="for_model" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="1364">
   <si>
     <t>State</t>
   </si>
@@ -4116,6 +4116,9 @@
   </si>
   <si>
     <t>Zone</t>
+  </si>
+  <si>
+    <t>typ</t>
   </si>
 </sst>
 </file>
@@ -4507,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,7 +4528,7 @@
         <v>1281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1279</v>
+        <v>1363</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1280</v>
@@ -27321,7 +27324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/Model_setup/NEISO_data_file/generators.xlsx
+++ b/Model_setup/NEISO_data_file/generators.xlsx
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:N375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3941,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>200</v>
+        <v>147.4</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>1500</v>
+        <v>684</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>45.1</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>800</v>
+        <v>511.7</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>700</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>500</v>
+        <v>1991.1</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>

--- a/Model_setup/NEISO_data_file/generators.xlsx
+++ b/Model_setup/NEISO_data_file/generators.xlsx
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:N375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">

--- a/Model_setup/NEISO_data_file/generators.xlsx
+++ b/Model_setup/NEISO_data_file/generators.xlsx
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:N375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3956,7 +3956,8 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>200</v>
+        <f>D7</f>
+        <v>147.4</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -4000,7 +4001,8 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>1500</v>
+        <f t="shared" ref="I8:I18" si="0">D8</f>
+        <v>684</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -4044,7 +4046,8 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>45.1</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -4088,7 +4091,8 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>800</v>
+        <f t="shared" si="0"/>
+        <v>511.7</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -4132,7 +4136,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -4176,7 +4181,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>327.10000000000002</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -4220,7 +4226,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>1991.1</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -4264,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" ref="I14:I77" si="0">D14</f>
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="J14" s="2">
@@ -4490,7 +4497,7 @@
         <v>5.6</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I14:I77" si="2">D19</f>
         <v>16</v>
       </c>
       <c r="J19" s="2">
@@ -4506,7 +4513,7 @@
         <v>3.17</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:N82" si="2">D19*70</f>
+        <f t="shared" ref="N19:N82" si="3">D19*70</f>
         <v>1120</v>
       </c>
     </row>
@@ -4537,7 +4544,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J20" s="2">
@@ -4553,7 +4560,7 @@
         <v>3.17</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
@@ -4584,7 +4591,7 @@
         <v>101.14999999999999</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="J21" s="2">
@@ -4600,7 +4607,7 @@
         <v>3.17</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20230</v>
       </c>
     </row>
@@ -4631,7 +4638,7 @@
         <v>101.14999999999999</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="J22" s="2">
@@ -4647,7 +4654,7 @@
         <v>3.17</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20230</v>
       </c>
     </row>
@@ -4678,7 +4685,7 @@
         <v>101.14999999999999</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="J23" s="2">
@@ -4694,7 +4701,7 @@
         <v>3.17</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20230</v>
       </c>
     </row>
@@ -4725,7 +4732,7 @@
         <v>101.14999999999999</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="J24" s="2">
@@ -4741,7 +4748,7 @@
         <v>3.17</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20230</v>
       </c>
     </row>
@@ -4772,7 +4779,7 @@
         <v>45.044999999999995</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>128.69999999999999</v>
       </c>
       <c r="J25" s="2">
@@ -4788,7 +4795,7 @@
         <v>3.17</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9009</v>
       </c>
     </row>
@@ -4819,7 +4826,7 @@
         <v>101.14999999999999</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="J26" s="2">
@@ -4835,7 +4842,7 @@
         <v>3.17</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20230</v>
       </c>
     </row>
@@ -4866,7 +4873,7 @@
         <v>62.999999999999993</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="J27" s="2">
@@ -4882,7 +4889,7 @@
         <v>3.17</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12600</v>
       </c>
     </row>
@@ -4913,7 +4920,7 @@
         <v>10.744999999999999</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30.7</v>
       </c>
       <c r="J28" s="2">
@@ -4929,7 +4936,7 @@
         <v>3.17</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2149</v>
       </c>
     </row>
@@ -4960,7 +4967,7 @@
         <v>33.25</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="J29" s="2">
@@ -4976,7 +4983,7 @@
         <v>3.17</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6650</v>
       </c>
     </row>
@@ -5007,7 +5014,7 @@
         <v>98.174999999999997</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>280.5</v>
       </c>
       <c r="J30" s="2">
@@ -5023,7 +5030,7 @@
         <v>3.17</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19635</v>
       </c>
     </row>
@@ -5054,7 +5061,7 @@
         <v>11.27</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.200000000000003</v>
       </c>
       <c r="J31" s="2">
@@ -5070,7 +5077,7 @@
         <v>3.17</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2254</v>
       </c>
     </row>
@@ -5101,7 +5108,7 @@
         <v>70</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="J32" s="2">
@@ -5117,7 +5124,7 @@
         <v>3.17</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14000</v>
       </c>
     </row>
@@ -5148,7 +5155,7 @@
         <v>39.76</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>113.6</v>
       </c>
       <c r="J33" s="2">
@@ -5164,7 +5171,7 @@
         <v>3.17</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7952</v>
       </c>
     </row>
@@ -5195,7 +5202,7 @@
         <v>82.004999999999995</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>234.3</v>
       </c>
       <c r="J34" s="2">
@@ -5211,7 +5218,7 @@
         <v>3.17</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16401</v>
       </c>
     </row>
@@ -5242,7 +5249,7 @@
         <v>110.25</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
       <c r="J35" s="2">
@@ -5258,7 +5265,7 @@
         <v>3.17</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22050</v>
       </c>
     </row>
@@ -5289,7 +5296,7 @@
         <v>3.5</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -5305,7 +5312,7 @@
         <v>3.17</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
     </row>
@@ -5336,7 +5343,7 @@
         <v>3.5</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -5352,7 +5359,7 @@
         <v>3.17</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
     </row>
@@ -5383,7 +5390,7 @@
         <v>4.375</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="J38" s="2">
@@ -5399,7 +5406,7 @@
         <v>3.17</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>875</v>
       </c>
     </row>
@@ -5430,7 +5437,7 @@
         <v>1.75</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J39" s="2">
@@ -5446,7 +5453,7 @@
         <v>3.17</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
@@ -5477,7 +5484,7 @@
         <v>94.5</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="J40" s="2">
@@ -5493,7 +5500,7 @@
         <v>3.17</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -5524,7 +5531,7 @@
         <v>1.47</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="J41" s="2">
@@ -5540,7 +5547,7 @@
         <v>3.17</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
     </row>
@@ -5571,7 +5578,7 @@
         <v>1.9949999999999999</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
       <c r="J42" s="2">
@@ -5587,7 +5594,7 @@
         <v>3.17</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>399</v>
       </c>
     </row>
@@ -5618,7 +5625,7 @@
         <v>9.52</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27.2</v>
       </c>
       <c r="J43" s="2">
@@ -5634,7 +5641,7 @@
         <v>3.17</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1904</v>
       </c>
     </row>
@@ -5665,7 +5672,7 @@
         <v>1.4349999999999998</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="J44" s="2">
@@ -5681,7 +5688,7 @@
         <v>3.17</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>287</v>
       </c>
     </row>
@@ -5712,7 +5719,7 @@
         <v>103.25</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>295</v>
       </c>
       <c r="J45" s="2">
@@ -5728,7 +5735,7 @@
         <v>3.17</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20650</v>
       </c>
     </row>
@@ -5759,7 +5766,7 @@
         <v>98</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="J46" s="2">
@@ -5775,7 +5782,7 @@
         <v>3.17</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19600</v>
       </c>
     </row>
@@ -5806,7 +5813,7 @@
         <v>98</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="J47" s="2">
@@ -5822,7 +5829,7 @@
         <v>3.17</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19600</v>
       </c>
     </row>
@@ -5853,7 +5860,7 @@
         <v>98</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="J48" s="2">
@@ -5869,7 +5876,7 @@
         <v>3.17</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19600</v>
       </c>
     </row>
@@ -5900,7 +5907,7 @@
         <v>68.11</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>194.6</v>
       </c>
       <c r="J49" s="2">
@@ -5916,7 +5923,7 @@
         <v>3.17</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13622</v>
       </c>
     </row>
@@ -5947,7 +5954,7 @@
         <v>16.799999999999997</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="J50" s="2">
@@ -5963,7 +5970,7 @@
         <v>3.17</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3360</v>
       </c>
     </row>
@@ -5994,7 +6001,7 @@
         <v>16.099999999999998</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="J51" s="2">
@@ -6010,7 +6017,7 @@
         <v>3.17</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3220</v>
       </c>
     </row>
@@ -6041,7 +6048,7 @@
         <v>16.099999999999998</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="J52" s="2">
@@ -6057,7 +6064,7 @@
         <v>3.17</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3220</v>
       </c>
     </row>
@@ -6088,7 +6095,7 @@
         <v>28.315000000000001</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.900000000000006</v>
       </c>
       <c r="J53" s="2">
@@ -6104,7 +6111,7 @@
         <v>3.17</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5663</v>
       </c>
     </row>
@@ -6135,7 +6142,7 @@
         <v>3.8499999999999996</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J54" s="2">
@@ -6151,7 +6158,7 @@
         <v>3.17</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>770</v>
       </c>
     </row>
@@ -6182,7 +6189,7 @@
         <v>3.8499999999999996</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J55" s="2">
@@ -6198,7 +6205,7 @@
         <v>3.17</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>770</v>
       </c>
     </row>
@@ -6229,7 +6236,7 @@
         <v>39.76</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>113.6</v>
       </c>
       <c r="J56" s="2">
@@ -6245,7 +6252,7 @@
         <v>3.17</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7952</v>
       </c>
     </row>
@@ -6276,7 +6283,7 @@
         <v>83.789999999999992</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>239.4</v>
       </c>
       <c r="J57" s="2">
@@ -6292,7 +6299,7 @@
         <v>3.17</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16758</v>
       </c>
     </row>
@@ -6323,7 +6330,7 @@
         <v>42.14</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120.4</v>
       </c>
       <c r="J58" s="2">
@@ -6339,7 +6346,7 @@
         <v>3.17</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8428</v>
       </c>
     </row>
@@ -6370,7 +6377,7 @@
         <v>101.14999999999999</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="J59" s="2">
@@ -6386,7 +6393,7 @@
         <v>3.17</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20230</v>
       </c>
     </row>
@@ -6417,7 +6424,7 @@
         <v>101.14999999999999</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="J60" s="2">
@@ -6433,7 +6440,7 @@
         <v>3.17</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20230</v>
       </c>
     </row>
@@ -6464,7 +6471,7 @@
         <v>46.305</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>132.30000000000001</v>
       </c>
       <c r="J61" s="2">
@@ -6480,7 +6487,7 @@
         <v>3.17</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9261</v>
       </c>
     </row>
@@ -6511,7 +6518,7 @@
         <v>110.25</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
       <c r="J62" s="2">
@@ -6527,7 +6534,7 @@
         <v>3.17</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22050</v>
       </c>
     </row>
@@ -6558,7 +6565,7 @@
         <v>110.25</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
       <c r="J63" s="2">
@@ -6574,7 +6581,7 @@
         <v>3.17</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22050</v>
       </c>
     </row>
@@ -6605,7 +6612,7 @@
         <v>161</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>460</v>
       </c>
       <c r="J64" s="2">
@@ -6621,7 +6628,7 @@
         <v>3.17</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32200</v>
       </c>
     </row>
@@ -6652,7 +6659,7 @@
         <v>0.875</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="J65" s="2">
@@ -6668,7 +6675,7 @@
         <v>3.17</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
     </row>
@@ -6699,7 +6706,7 @@
         <v>1.085</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
       <c r="J66" s="2">
@@ -6715,7 +6722,7 @@
         <v>3.17</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
     </row>
@@ -6746,7 +6753,7 @@
         <v>31.009999999999994</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>88.6</v>
       </c>
       <c r="J67" s="2">
@@ -6762,7 +6769,7 @@
         <v>3.17</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6202</v>
       </c>
     </row>
@@ -6793,7 +6800,7 @@
         <v>31.009999999999994</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>88.6</v>
       </c>
       <c r="J68" s="2">
@@ -6809,7 +6816,7 @@
         <v>3.17</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6202</v>
       </c>
     </row>
@@ -6840,7 +6847,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="J69" s="2">
@@ -6856,7 +6863,7 @@
         <v>3.17</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1890</v>
       </c>
     </row>
@@ -6887,7 +6894,7 @@
         <v>3.5</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J70" s="2">
@@ -6903,7 +6910,7 @@
         <v>3.17</v>
       </c>
       <c r="N70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
     </row>
@@ -6934,7 +6941,7 @@
         <v>3.5</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J71" s="2">
@@ -6950,7 +6957,7 @@
         <v>3.17</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
     </row>
@@ -6981,7 +6988,7 @@
         <v>2.625</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J72" s="2">
@@ -6997,7 +7004,7 @@
         <v>3.17</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>525</v>
       </c>
     </row>
@@ -7028,7 +7035,7 @@
         <v>18.689999999999998</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53.4</v>
       </c>
       <c r="J73" s="2">
@@ -7044,7 +7051,7 @@
         <v>3.17</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3738</v>
       </c>
     </row>
@@ -7075,7 +7082,7 @@
         <v>8.75</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J74" s="2">
@@ -7091,7 +7098,7 @@
         <v>3.17</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
     </row>
@@ -7122,7 +7129,7 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="J75" s="2">
@@ -7138,7 +7145,7 @@
         <v>3.17</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
     </row>
@@ -7169,7 +7176,7 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="J76" s="2">
@@ -7185,7 +7192,7 @@
         <v>3.17</v>
       </c>
       <c r="N76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
     </row>
@@ -7216,7 +7223,7 @@
         <v>1.2249999999999999</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="J77" s="2">
@@ -7232,7 +7239,7 @@
         <v>3.17</v>
       </c>
       <c r="N77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
     </row>
@@ -7263,7 +7270,7 @@
         <v>1.2249999999999999</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" ref="I78:I141" si="3">D78</f>
+        <f t="shared" ref="I78:I141" si="4">D78</f>
         <v>3.5</v>
       </c>
       <c r="J78" s="2">
@@ -7279,7 +7286,7 @@
         <v>3.17</v>
       </c>
       <c r="N78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
     </row>
@@ -7310,7 +7317,7 @@
         <v>71.399999999999991</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="J79" s="2">
@@ -7326,7 +7333,7 @@
         <v>3.17</v>
       </c>
       <c r="N79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14280</v>
       </c>
     </row>
@@ -7357,7 +7364,7 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7</v>
       </c>
       <c r="J80" s="2">
@@ -7373,7 +7380,7 @@
         <v>3.17</v>
       </c>
       <c r="N80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>259</v>
       </c>
     </row>
@@ -7404,7 +7411,7 @@
         <v>33.284999999999997</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95.1</v>
       </c>
       <c r="J81" s="2">
@@ -7420,7 +7427,7 @@
         <v>3.17</v>
       </c>
       <c r="N81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6657</v>
       </c>
     </row>
@@ -7451,7 +7458,7 @@
         <v>55.44</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>158.4</v>
       </c>
       <c r="J82" s="2">
@@ -7467,7 +7474,7 @@
         <v>3.17</v>
       </c>
       <c r="N82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11088</v>
       </c>
     </row>
@@ -7494,11 +7501,11 @@
         <v>17.63336343731811</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" ref="H83:H146" si="4">0.35*D83</f>
+        <f t="shared" ref="H83:H146" si="5">0.35*D83</f>
         <v>55.44</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>158.4</v>
       </c>
       <c r="J83" s="2">
@@ -7514,7 +7521,7 @@
         <v>3.17</v>
       </c>
       <c r="N83" s="2">
-        <f t="shared" ref="N83:N146" si="5">D83*70</f>
+        <f t="shared" ref="N83:N146" si="6">D83*70</f>
         <v>11088</v>
       </c>
     </row>
@@ -7541,11 +7548,11 @@
         <v>8.2035250580944812</v>
       </c>
       <c r="H84" s="2">
+        <f t="shared" si="5"/>
+        <v>9.4849999999999994</v>
+      </c>
+      <c r="I84" s="2">
         <f t="shared" si="4"/>
-        <v>9.4849999999999994</v>
-      </c>
-      <c r="I84" s="2">
-        <f t="shared" si="3"/>
         <v>27.1</v>
       </c>
       <c r="J84" s="2">
@@ -7561,7 +7568,7 @@
         <v>3.17</v>
       </c>
       <c r="N84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1897</v>
       </c>
     </row>
@@ -7588,11 +7595,11 @@
         <v>6.2902541950944819</v>
       </c>
       <c r="H85" s="2">
+        <f t="shared" si="5"/>
+        <v>32.619999999999997</v>
+      </c>
+      <c r="I85" s="2">
         <f t="shared" si="4"/>
-        <v>32.619999999999997</v>
-      </c>
-      <c r="I85" s="2">
-        <f t="shared" si="3"/>
         <v>93.2</v>
       </c>
       <c r="J85" s="2">
@@ -7608,7 +7615,7 @@
         <v>3.17</v>
       </c>
       <c r="N85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6524</v>
       </c>
     </row>
@@ -7635,11 +7642,11 @@
         <v>4.9650361040944819</v>
       </c>
       <c r="H86" s="2">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="I86" s="2">
         <f t="shared" si="4"/>
-        <v>1.75</v>
-      </c>
-      <c r="I86" s="2">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J86" s="2">
@@ -7655,7 +7662,7 @@
         <v>3.17</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
     </row>
@@ -7682,11 +7689,11 @@
         <v>5.5192123620944811</v>
       </c>
       <c r="H87" s="2">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="I87" s="2">
         <f t="shared" si="4"/>
-        <v>0.875</v>
-      </c>
-      <c r="I87" s="2">
-        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="J87" s="2">
@@ -7702,7 +7709,7 @@
         <v>3.17</v>
       </c>
       <c r="N87" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
     </row>
@@ -7729,11 +7736,11 @@
         <v>5.5192123620944811</v>
       </c>
       <c r="H88" s="2">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="I88" s="2">
         <f t="shared" si="4"/>
-        <v>0.875</v>
-      </c>
-      <c r="I88" s="2">
-        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="J88" s="2">
@@ -7749,7 +7756,7 @@
         <v>3.17</v>
       </c>
       <c r="N88" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
     </row>
@@ -7776,11 +7783,11 @@
         <v>5.5192123620944811</v>
       </c>
       <c r="H89" s="2">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="I89" s="2">
         <f t="shared" si="4"/>
-        <v>1.75</v>
-      </c>
-      <c r="I89" s="2">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J89" s="2">
@@ -7796,7 +7803,7 @@
         <v>3.17</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
     </row>
@@ -7823,11 +7830,11 @@
         <v>6.1010289390944816</v>
       </c>
       <c r="H90" s="2">
+        <f t="shared" si="5"/>
+        <v>68.424999999999997</v>
+      </c>
+      <c r="I90" s="2">
         <f t="shared" si="4"/>
-        <v>68.424999999999997</v>
-      </c>
-      <c r="I90" s="2">
-        <f t="shared" si="3"/>
         <v>195.5</v>
       </c>
       <c r="J90" s="2">
@@ -7843,7 +7850,7 @@
         <v>3.17</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13685</v>
       </c>
     </row>
@@ -7870,11 +7877,11 @@
         <v>61.384004705023663</v>
       </c>
       <c r="H91" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="I91" s="2">
         <f t="shared" si="4"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="I91" s="2">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J91" s="2">
@@ -7890,7 +7897,7 @@
         <v>3.17</v>
       </c>
       <c r="N91" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
     </row>
@@ -7917,11 +7924,11 @@
         <v>8.8658700495224227</v>
       </c>
       <c r="H92" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I92" s="2">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="I92" s="2">
-        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="J92" s="2">
@@ -7937,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="N92" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
     </row>
@@ -7964,11 +7971,11 @@
         <v>8.8658700495224227</v>
       </c>
       <c r="H93" s="2">
+        <f t="shared" si="5"/>
+        <v>5.25</v>
+      </c>
+      <c r="I93" s="2">
         <f t="shared" si="4"/>
-        <v>5.25</v>
-      </c>
-      <c r="I93" s="2">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="J93" s="2">
@@ -7984,7 +7991,7 @@
         <v>2</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1050</v>
       </c>
     </row>
@@ -8011,11 +8018,11 @@
         <v>8.1183091858491707</v>
       </c>
       <c r="H94" s="2">
+        <f t="shared" si="5"/>
+        <v>29.4</v>
+      </c>
+      <c r="I94" s="2">
         <f t="shared" si="4"/>
-        <v>29.4</v>
-      </c>
-      <c r="I94" s="2">
-        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="J94" s="2">
@@ -8031,7 +8038,7 @@
         <v>2</v>
       </c>
       <c r="N94" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5880</v>
       </c>
     </row>
@@ -8058,11 +8065,11 @@
         <v>16.04172430372962</v>
       </c>
       <c r="H95" s="2">
+        <f t="shared" si="5"/>
+        <v>0.42</v>
+      </c>
+      <c r="I95" s="2">
         <f t="shared" si="4"/>
-        <v>0.42</v>
-      </c>
-      <c r="I95" s="2">
-        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="J95" s="2">
@@ -8078,7 +8085,7 @@
         <v>2</v>
       </c>
       <c r="N95" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
@@ -8105,11 +8112,11 @@
         <v>2.0671221807311202</v>
       </c>
       <c r="H96" s="2">
+        <f t="shared" si="5"/>
+        <v>19.074999999999999</v>
+      </c>
+      <c r="I96" s="2">
         <f t="shared" si="4"/>
-        <v>19.074999999999999</v>
-      </c>
-      <c r="I96" s="2">
-        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
       <c r="J96" s="2">
@@ -8125,7 +8132,7 @@
         <v>2</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3815</v>
       </c>
     </row>
@@ -8152,11 +8159,11 @@
         <v>7.7610912220379911</v>
       </c>
       <c r="H97" s="2">
+        <f t="shared" si="5"/>
+        <v>19.074999999999999</v>
+      </c>
+      <c r="I97" s="2">
         <f t="shared" si="4"/>
-        <v>19.074999999999999</v>
-      </c>
-      <c r="I97" s="2">
-        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
       <c r="J97" s="2">
@@ -8172,7 +8179,7 @@
         <v>2</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3815</v>
       </c>
     </row>
@@ -8199,11 +8206,11 @@
         <v>20.262857143711951</v>
       </c>
       <c r="H98" s="2">
+        <f t="shared" si="5"/>
+        <v>19.074999999999999</v>
+      </c>
+      <c r="I98" s="2">
         <f t="shared" si="4"/>
-        <v>19.074999999999999</v>
-      </c>
-      <c r="I98" s="2">
-        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
       <c r="J98" s="2">
@@ -8219,7 +8226,7 @@
         <v>2</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3815</v>
       </c>
     </row>
@@ -8246,11 +8253,11 @@
         <v>7.7584171820944858</v>
       </c>
       <c r="H99" s="2">
+        <f t="shared" si="5"/>
+        <v>45.044999999999995</v>
+      </c>
+      <c r="I99" s="2">
         <f t="shared" si="4"/>
-        <v>45.044999999999995</v>
-      </c>
-      <c r="I99" s="2">
-        <f t="shared" si="3"/>
         <v>128.69999999999999</v>
       </c>
       <c r="J99" s="2">
@@ -8266,7 +8273,7 @@
         <v>2</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9009</v>
       </c>
     </row>
@@ -8293,11 +8300,11 @@
         <v>7.7584171820944858</v>
       </c>
       <c r="H100" s="2">
+        <f t="shared" si="5"/>
+        <v>45.044999999999995</v>
+      </c>
+      <c r="I100" s="2">
         <f t="shared" si="4"/>
-        <v>45.044999999999995</v>
-      </c>
-      <c r="I100" s="2">
-        <f t="shared" si="3"/>
         <v>128.69999999999999</v>
       </c>
       <c r="J100" s="2">
@@ -8313,7 +8320,7 @@
         <v>2</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9009</v>
       </c>
     </row>
@@ -8340,11 +8347,11 @@
         <v>9.28871822523978</v>
       </c>
       <c r="H101" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I101" s="2">
         <f t="shared" si="4"/>
-        <v>0.7</v>
-      </c>
-      <c r="I101" s="2">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J101" s="2">
@@ -8360,7 +8367,7 @@
         <v>2</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
@@ -8387,11 +8394,11 @@
         <v>14.422774229018181</v>
       </c>
       <c r="H102" s="2">
+        <f t="shared" si="5"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="I102" s="2">
         <f t="shared" si="4"/>
-        <v>0.52499999999999991</v>
-      </c>
-      <c r="I102" s="2">
-        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J102" s="2">
@@ -8407,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
@@ -8434,11 +8441,11 @@
         <v>14.42277687114</v>
       </c>
       <c r="H103" s="2">
+        <f t="shared" si="5"/>
+        <v>0.42</v>
+      </c>
+      <c r="I103" s="2">
         <f t="shared" si="4"/>
-        <v>0.42</v>
-      </c>
-      <c r="I103" s="2">
-        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="J103" s="2">
@@ -8454,7 +8461,7 @@
         <v>2</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
@@ -8481,11 +8488,11 @@
         <v>14.42277687114</v>
       </c>
       <c r="H104" s="2">
+        <f t="shared" si="5"/>
+        <v>0.42</v>
+      </c>
+      <c r="I104" s="2">
         <f t="shared" si="4"/>
-        <v>0.42</v>
-      </c>
-      <c r="I104" s="2">
-        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="J104" s="2">
@@ -8501,7 +8508,7 @@
         <v>2</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
@@ -8528,11 +8535,11 @@
         <v>14.422773769623509</v>
       </c>
       <c r="H105" s="2">
+        <f t="shared" si="5"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="I105" s="2">
         <f t="shared" si="4"/>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="I105" s="2">
-        <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
       <c r="J105" s="2">
@@ -8548,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
     </row>
@@ -8575,11 +8582,11 @@
         <v>6.1923386930944773</v>
       </c>
       <c r="H106" s="2">
+        <f t="shared" si="5"/>
+        <v>59.499999999999993</v>
+      </c>
+      <c r="I106" s="2">
         <f t="shared" si="4"/>
-        <v>59.499999999999993</v>
-      </c>
-      <c r="I106" s="2">
-        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="J106" s="2">
@@ -8595,7 +8602,7 @@
         <v>2</v>
       </c>
       <c r="N106" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11900</v>
       </c>
     </row>
@@ -8622,11 +8629,11 @@
         <v>6.1923386930944773</v>
       </c>
       <c r="H107" s="2">
+        <f t="shared" si="5"/>
+        <v>59.499999999999993</v>
+      </c>
+      <c r="I107" s="2">
         <f t="shared" si="4"/>
-        <v>59.499999999999993</v>
-      </c>
-      <c r="I107" s="2">
-        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="J107" s="2">
@@ -8642,7 +8649,7 @@
         <v>2</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11900</v>
       </c>
     </row>
@@ -8669,11 +8676,11 @@
         <v>7.7997470046179904</v>
       </c>
       <c r="H108" s="2">
+        <f t="shared" si="5"/>
+        <v>5.8100000000000005</v>
+      </c>
+      <c r="I108" s="2">
         <f t="shared" si="4"/>
-        <v>5.8100000000000005</v>
-      </c>
-      <c r="I108" s="2">
-        <f t="shared" si="3"/>
         <v>16.600000000000001</v>
       </c>
       <c r="J108" s="2">
@@ -8689,7 +8696,7 @@
         <v>2</v>
       </c>
       <c r="N108" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1162</v>
       </c>
     </row>
@@ -8716,11 +8723,11 @@
         <v>8.6025710664292507</v>
       </c>
       <c r="H109" s="2">
+        <f t="shared" si="5"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="I109" s="2">
         <f t="shared" si="4"/>
-        <v>0.52499999999999991</v>
-      </c>
-      <c r="I109" s="2">
-        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J109" s="2">
@@ -8736,7 +8743,7 @@
         <v>2</v>
       </c>
       <c r="N109" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
@@ -8763,11 +8770,11 @@
         <v>8.5599258760944856</v>
       </c>
       <c r="H110" s="2">
+        <f t="shared" si="5"/>
+        <v>13.929999999999998</v>
+      </c>
+      <c r="I110" s="2">
         <f t="shared" si="4"/>
-        <v>13.929999999999998</v>
-      </c>
-      <c r="I110" s="2">
-        <f t="shared" si="3"/>
         <v>39.799999999999997</v>
       </c>
       <c r="J110" s="2">
@@ -8783,7 +8790,7 @@
         <v>2</v>
       </c>
       <c r="N110" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2786</v>
       </c>
     </row>
@@ -8810,11 +8817,11 @@
         <v>7.9041182349181458</v>
       </c>
       <c r="H111" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I111" s="2">
         <f t="shared" si="4"/>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="I111" s="2">
-        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="J111" s="2">
@@ -8830,7 +8837,7 @@
         <v>2</v>
       </c>
       <c r="N111" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
     </row>
@@ -8857,11 +8864,11 @@
         <v>7.9041182349181458</v>
       </c>
       <c r="H112" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I112" s="2">
         <f t="shared" si="4"/>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="I112" s="2">
-        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="J112" s="2">
@@ -8877,7 +8884,7 @@
         <v>2</v>
       </c>
       <c r="N112" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
     </row>
@@ -8904,11 +8911,11 @@
         <v>7.7398107428586131</v>
       </c>
       <c r="H113" s="2">
+        <f t="shared" si="5"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="I113" s="2">
         <f t="shared" si="4"/>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="I113" s="2">
-        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
       <c r="J113" s="2">
@@ -8924,7 +8931,7 @@
         <v>2</v>
       </c>
       <c r="N113" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
     </row>
@@ -8951,11 +8958,11 @@
         <v>9.8297773272169078</v>
       </c>
       <c r="H114" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="I114" s="2">
         <f t="shared" si="4"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="I114" s="2">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J114" s="2">
@@ -8971,7 +8978,7 @@
         <v>2</v>
       </c>
       <c r="N114" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
     </row>
@@ -8998,11 +9005,11 @@
         <v>15.58859578291437</v>
       </c>
       <c r="H115" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="I115" s="2">
         <f t="shared" si="4"/>
-        <v>1.2249999999999999</v>
-      </c>
-      <c r="I115" s="2">
-        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="J115" s="2">
@@ -9018,7 +9025,7 @@
         <v>2</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>245</v>
       </c>
     </row>
@@ -9045,11 +9052,11 @@
         <v>15.58859578291437</v>
       </c>
       <c r="H116" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="I116" s="2">
         <f t="shared" si="4"/>
-        <v>1.2249999999999999</v>
-      </c>
-      <c r="I116" s="2">
-        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="J116" s="2">
@@ -9065,7 +9072,7 @@
         <v>2</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>245</v>
       </c>
     </row>
@@ -9092,11 +9099,11 @@
         <v>9.5131614588491722</v>
       </c>
       <c r="H117" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I117" s="2">
         <f t="shared" si="4"/>
-        <v>0.7</v>
-      </c>
-      <c r="I117" s="2">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J117" s="2">
@@ -9112,7 +9119,7 @@
         <v>2</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
@@ -9139,11 +9146,11 @@
         <v>9.5169825336745646</v>
       </c>
       <c r="H118" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="I118" s="2">
         <f t="shared" si="4"/>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="I118" s="2">
-        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="J118" s="2">
@@ -9159,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="N118" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
@@ -9186,11 +9193,11 @@
         <v>8.6025710664292507</v>
       </c>
       <c r="H119" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I119" s="2">
         <f t="shared" si="4"/>
-        <v>0.7</v>
-      </c>
-      <c r="I119" s="2">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J119" s="2">
@@ -9206,7 +9213,7 @@
         <v>2</v>
       </c>
       <c r="N119" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
@@ -9233,11 +9240,11 @@
         <v>10.62663507409447</v>
       </c>
       <c r="H120" s="2">
+        <f t="shared" si="5"/>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="I120" s="2">
         <f t="shared" si="4"/>
-        <v>8.0499999999999989</v>
-      </c>
-      <c r="I120" s="2">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="J120" s="2">
@@ -9253,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="N120" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1610</v>
       </c>
     </row>
@@ -9280,11 +9287,11 @@
         <v>5.9774449730944781</v>
       </c>
       <c r="H121" s="2">
+        <f t="shared" si="5"/>
+        <v>98.174999999999997</v>
+      </c>
+      <c r="I121" s="2">
         <f t="shared" si="4"/>
-        <v>98.174999999999997</v>
-      </c>
-      <c r="I121" s="2">
-        <f t="shared" si="3"/>
         <v>280.5</v>
       </c>
       <c r="J121" s="2">
@@ -9300,7 +9307,7 @@
         <v>2</v>
       </c>
       <c r="N121" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19635</v>
       </c>
     </row>
@@ -9327,11 +9334,11 @@
         <v>5.9774449730944781</v>
       </c>
       <c r="H122" s="2">
+        <f t="shared" si="5"/>
+        <v>98.174999999999997</v>
+      </c>
+      <c r="I122" s="2">
         <f t="shared" si="4"/>
-        <v>98.174999999999997</v>
-      </c>
-      <c r="I122" s="2">
-        <f t="shared" si="3"/>
         <v>280.5</v>
       </c>
       <c r="J122" s="2">
@@ -9347,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="N122" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19635</v>
       </c>
     </row>
@@ -9374,11 +9381,11 @@
         <v>11.302503186796519</v>
       </c>
       <c r="H123" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="I123" s="2">
         <f t="shared" si="4"/>
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="I123" s="2">
-        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
       <c r="J123" s="2">
@@ -9394,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="N123" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>301</v>
       </c>
     </row>
@@ -9421,11 +9428,11 @@
         <v>8.1510378240944767</v>
       </c>
       <c r="H124" s="2">
+        <f t="shared" si="5"/>
+        <v>14.664999999999999</v>
+      </c>
+      <c r="I124" s="2">
         <f t="shared" si="4"/>
-        <v>14.664999999999999</v>
-      </c>
-      <c r="I124" s="2">
-        <f t="shared" si="3"/>
         <v>41.9</v>
       </c>
       <c r="J124" s="2">
@@ -9441,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="N124" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2933</v>
       </c>
     </row>
@@ -9468,11 +9475,11 @@
         <v>7.2366263568491673</v>
       </c>
       <c r="H125" s="2">
+        <f t="shared" si="5"/>
+        <v>8.1549999999999994</v>
+      </c>
+      <c r="I125" s="2">
         <f t="shared" si="4"/>
-        <v>8.1549999999999994</v>
-      </c>
-      <c r="I125" s="2">
-        <f t="shared" si="3"/>
         <v>23.3</v>
       </c>
       <c r="J125" s="2">
@@ -9488,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="N125" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1631</v>
       </c>
     </row>
@@ -9515,11 +9522,11 @@
         <v>5.5207773501982178</v>
       </c>
       <c r="H126" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I126" s="2">
         <f t="shared" si="4"/>
-        <v>0.7</v>
-      </c>
-      <c r="I126" s="2">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J126" s="2">
@@ -9535,7 +9542,7 @@
         <v>2</v>
       </c>
       <c r="N126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
@@ -9562,11 +9569,11 @@
         <v>12.555908406610859</v>
       </c>
       <c r="H127" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3299999999999998</v>
+      </c>
+      <c r="I127" s="2">
         <f t="shared" si="4"/>
-        <v>1.3299999999999998</v>
-      </c>
-      <c r="I127" s="2">
-        <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
       <c r="J127" s="2">
@@ -9582,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="N127" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>266</v>
       </c>
     </row>
@@ -9609,11 +9616,11 @@
         <v>11.410444324562951</v>
       </c>
       <c r="H128" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="I128" s="2">
         <f t="shared" si="4"/>
-        <v>1.9599999999999997</v>
-      </c>
-      <c r="I128" s="2">
-        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
       <c r="J128" s="2">
@@ -9629,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="N128" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
     </row>
@@ -9656,11 +9663,11 @@
         <v>9.4019768148491707</v>
       </c>
       <c r="H129" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="I129" s="2">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="I129" s="2">
-        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J129" s="2">
@@ -9676,7 +9683,7 @@
         <v>2</v>
       </c>
       <c r="N129" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4200</v>
       </c>
     </row>
@@ -9703,11 +9710,11 @@
         <v>9.4019768148491707</v>
       </c>
       <c r="H130" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="I130" s="2">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="I130" s="2">
-        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J130" s="2">
@@ -9723,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="N130" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4200</v>
       </c>
     </row>
@@ -9750,11 +9757,11 @@
         <v>6.6552193240944826</v>
       </c>
       <c r="H131" s="2">
+        <f t="shared" si="5"/>
+        <v>64.959999999999994</v>
+      </c>
+      <c r="I131" s="2">
         <f t="shared" si="4"/>
-        <v>64.959999999999994</v>
-      </c>
-      <c r="I131" s="2">
-        <f t="shared" si="3"/>
         <v>185.6</v>
       </c>
       <c r="J131" s="2">
@@ -9770,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="N131" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12992</v>
       </c>
     </row>
@@ -9797,11 +9804,11 @@
         <v>6.6552193240944826</v>
       </c>
       <c r="H132" s="2">
+        <f t="shared" si="5"/>
+        <v>64.959999999999994</v>
+      </c>
+      <c r="I132" s="2">
         <f t="shared" si="4"/>
-        <v>64.959999999999994</v>
-      </c>
-      <c r="I132" s="2">
-        <f t="shared" si="3"/>
         <v>185.6</v>
       </c>
       <c r="J132" s="2">
@@ -9817,7 +9824,7 @@
         <v>2</v>
       </c>
       <c r="N132" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12992</v>
       </c>
     </row>
@@ -9844,11 +9851,11 @@
         <v>7.8731959401889258</v>
       </c>
       <c r="H133" s="2">
+        <f t="shared" si="5"/>
+        <v>1.575</v>
+      </c>
+      <c r="I133" s="2">
         <f t="shared" si="4"/>
-        <v>1.575</v>
-      </c>
-      <c r="I133" s="2">
-        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="J133" s="2">
@@ -9864,7 +9871,7 @@
         <v>2</v>
       </c>
       <c r="N133" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>315</v>
       </c>
     </row>
@@ -9891,11 +9898,11 @@
         <v>6.5674097560944826</v>
       </c>
       <c r="H134" s="2">
+        <f t="shared" si="5"/>
+        <v>97.51</v>
+      </c>
+      <c r="I134" s="2">
         <f t="shared" si="4"/>
-        <v>97.51</v>
-      </c>
-      <c r="I134" s="2">
-        <f t="shared" si="3"/>
         <v>278.60000000000002</v>
       </c>
       <c r="J134" s="2">
@@ -9911,7 +9918,7 @@
         <v>2</v>
       </c>
       <c r="N134" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19502</v>
       </c>
     </row>
@@ -9938,11 +9945,11 @@
         <v>6.5674097560944826</v>
       </c>
       <c r="H135" s="2">
+        <f t="shared" si="5"/>
+        <v>97.51</v>
+      </c>
+      <c r="I135" s="2">
         <f t="shared" si="4"/>
-        <v>97.51</v>
-      </c>
-      <c r="I135" s="2">
-        <f t="shared" si="3"/>
         <v>278.60000000000002</v>
       </c>
       <c r="J135" s="2">
@@ -9958,7 +9965,7 @@
         <v>2</v>
       </c>
       <c r="N135" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19502</v>
       </c>
     </row>
@@ -9985,11 +9992,11 @@
         <v>10.659337074776079</v>
       </c>
       <c r="H136" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3099999999999996</v>
+      </c>
+      <c r="I136" s="2">
         <f t="shared" si="4"/>
-        <v>2.3099999999999996</v>
-      </c>
-      <c r="I136" s="2">
-        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="J136" s="2">
@@ -10005,7 +10012,7 @@
         <v>2</v>
       </c>
       <c r="N136" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
     </row>
@@ -10032,11 +10039,11 @@
         <v>10.14789491384693</v>
       </c>
       <c r="H137" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3099999999999996</v>
+      </c>
+      <c r="I137" s="2">
         <f t="shared" si="4"/>
-        <v>2.3099999999999996</v>
-      </c>
-      <c r="I137" s="2">
-        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="J137" s="2">
@@ -10052,7 +10059,7 @@
         <v>2</v>
       </c>
       <c r="N137" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
     </row>
@@ -10079,11 +10086,11 @@
         <v>14.081749694143291</v>
       </c>
       <c r="H138" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="I138" s="2">
         <f t="shared" si="4"/>
-        <v>1.6099999999999999</v>
-      </c>
-      <c r="I138" s="2">
-        <f t="shared" si="3"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="J138" s="2">
@@ -10099,7 +10106,7 @@
         <v>2</v>
       </c>
       <c r="N138" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>322</v>
       </c>
     </row>
@@ -10126,11 +10133,11 @@
         <v>13.30438164374638</v>
       </c>
       <c r="H139" s="2">
+        <f t="shared" si="5"/>
+        <v>2.52</v>
+      </c>
+      <c r="I139" s="2">
         <f t="shared" si="4"/>
-        <v>2.52</v>
-      </c>
-      <c r="I139" s="2">
-        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
       <c r="J139" s="2">
@@ -10146,7 +10153,7 @@
         <v>2</v>
       </c>
       <c r="N139" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>504</v>
       </c>
     </row>
@@ -10173,11 +10180,11 @@
         <v>6.31525195609448</v>
       </c>
       <c r="H140" s="2">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="I140" s="2">
         <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="I140" s="2">
-        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="J140" s="2">
@@ -10193,7 +10200,7 @@
         <v>2</v>
       </c>
       <c r="N140" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18200</v>
       </c>
     </row>
@@ -10220,11 +10227,11 @@
         <v>6.31525195609448</v>
       </c>
       <c r="H141" s="2">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="I141" s="2">
         <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="I141" s="2">
-        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="J141" s="2">
@@ -10240,7 +10247,7 @@
         <v>2</v>
       </c>
       <c r="N141" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18200</v>
       </c>
     </row>
@@ -10267,11 +10274,11 @@
         <v>9.9654566766062409</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
       <c r="I142" s="2">
-        <f t="shared" ref="I142:I205" si="6">D142</f>
+        <f t="shared" ref="I142:I205" si="7">D142</f>
         <v>5</v>
       </c>
       <c r="J142" s="2">
@@ -10287,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="N142" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
     </row>
@@ -10314,11 +10321,11 @@
         <v>13.04897954403013</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.17</v>
       </c>
       <c r="I143" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.2</v>
       </c>
       <c r="J143" s="2">
@@ -10334,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="N143" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
     </row>
@@ -10361,11 +10368,11 @@
         <v>8.0236081994630819</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48999999999999994</v>
       </c>
       <c r="I144" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="J144" s="2">
@@ -10381,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="N144" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
     </row>
@@ -10408,11 +10415,11 @@
         <v>10.65458747462808</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42</v>
       </c>
       <c r="I145" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="J145" s="2">
@@ -10428,7 +10435,7 @@
         <v>2</v>
       </c>
       <c r="N145" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
@@ -10455,11 +10462,11 @@
         <v>10.65458747462808</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42</v>
       </c>
       <c r="I146" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="J146" s="2">
@@ -10475,7 +10482,7 @@
         <v>2</v>
       </c>
       <c r="N146" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
@@ -10502,11 +10509,11 @@
         <v>10.65458747462808</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H210" si="7">0.35*D147</f>
+        <f t="shared" ref="H147:H210" si="8">0.35*D147</f>
         <v>0.42</v>
       </c>
       <c r="I147" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="J147" s="2">
@@ -10522,7 +10529,7 @@
         <v>2</v>
       </c>
       <c r="N147" s="2">
-        <f t="shared" ref="N147:N210" si="8">D147*70</f>
+        <f t="shared" ref="N147:N210" si="9">D147*70</f>
         <v>84</v>
       </c>
     </row>
@@ -10549,11 +10556,11 @@
         <v>10.65458747462808</v>
       </c>
       <c r="H148" s="2">
+        <f t="shared" si="8"/>
+        <v>0.42</v>
+      </c>
+      <c r="I148" s="2">
         <f t="shared" si="7"/>
-        <v>0.42</v>
-      </c>
-      <c r="I148" s="2">
-        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
       <c r="J148" s="2">
@@ -10569,7 +10576,7 @@
         <v>2</v>
       </c>
       <c r="N148" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
     </row>
@@ -10596,11 +10603,11 @@
         <v>10.6546586545913</v>
       </c>
       <c r="H149" s="2">
+        <f t="shared" si="8"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I149" s="2">
         <f t="shared" si="7"/>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="I149" s="2">
-        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="J149" s="2">
@@ -10616,7 +10623,7 @@
         <v>2</v>
       </c>
       <c r="N149" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
     </row>
@@ -10643,11 +10650,11 @@
         <v>10.654503353940139</v>
       </c>
       <c r="H150" s="2">
+        <f t="shared" si="8"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I150" s="2">
         <f t="shared" si="7"/>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="I150" s="2">
-        <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="J150" s="2">
@@ -10663,7 +10670,7 @@
         <v>2</v>
       </c>
       <c r="N150" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
     </row>
@@ -10690,11 +10697,11 @@
         <v>10.6546586545913</v>
       </c>
       <c r="H151" s="2">
+        <f t="shared" si="8"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I151" s="2">
         <f t="shared" si="7"/>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="I151" s="2">
-        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="J151" s="2">
@@ -10710,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="N151" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
     </row>
@@ -10737,11 +10744,11 @@
         <v>12.243027541545329</v>
       </c>
       <c r="H152" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="I152" s="2">
         <f t="shared" si="7"/>
-        <v>1.4</v>
-      </c>
-      <c r="I152" s="2">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J152" s="2">
@@ -10757,7 +10764,7 @@
         <v>2</v>
       </c>
       <c r="N152" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
     </row>
@@ -10784,11 +10791,11 @@
         <v>6.3357798621793187</v>
       </c>
       <c r="H153" s="2">
+        <f t="shared" si="8"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I153" s="2">
         <f t="shared" si="7"/>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="I153" s="2">
-        <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="J153" s="2">
@@ -10804,7 +10811,7 @@
         <v>2</v>
       </c>
       <c r="N153" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
     </row>
@@ -10831,11 +10838,11 @@
         <v>4.8382467833107112</v>
       </c>
       <c r="H154" s="2">
+        <f t="shared" si="8"/>
+        <v>0.105</v>
+      </c>
+      <c r="I154" s="2">
         <f t="shared" si="7"/>
-        <v>0.105</v>
-      </c>
-      <c r="I154" s="2">
-        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J154" s="2">
@@ -10851,7 +10858,7 @@
         <v>2</v>
       </c>
       <c r="N154" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
     </row>
@@ -10878,11 +10885,11 @@
         <v>4.8395738710944816</v>
       </c>
       <c r="H155" s="2">
+        <f t="shared" si="8"/>
+        <v>65.169999999999987</v>
+      </c>
+      <c r="I155" s="2">
         <f t="shared" si="7"/>
-        <v>65.169999999999987</v>
-      </c>
-      <c r="I155" s="2">
-        <f t="shared" si="6"/>
         <v>186.2</v>
       </c>
       <c r="J155" s="2">
@@ -10898,7 +10905,7 @@
         <v>2</v>
       </c>
       <c r="N155" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13034</v>
       </c>
     </row>
@@ -10925,11 +10932,11 @@
         <v>10.932835098411029</v>
       </c>
       <c r="H156" s="2">
+        <f t="shared" si="8"/>
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="I156" s="2">
         <f t="shared" si="7"/>
-        <v>5.6349999999999998</v>
-      </c>
-      <c r="I156" s="2">
-        <f t="shared" si="6"/>
         <v>16.100000000000001</v>
       </c>
       <c r="J156" s="2">
@@ -10945,7 +10952,7 @@
         <v>2</v>
       </c>
       <c r="N156" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1127</v>
       </c>
     </row>
@@ -10972,11 +10979,11 @@
         <v>10.158336487133379</v>
       </c>
       <c r="H157" s="2">
+        <f t="shared" si="8"/>
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="I157" s="2">
         <f t="shared" si="7"/>
-        <v>5.6349999999999998</v>
-      </c>
-      <c r="I157" s="2">
-        <f t="shared" si="6"/>
         <v>16.100000000000001</v>
       </c>
       <c r="J157" s="2">
@@ -10992,7 +10999,7 @@
         <v>2</v>
       </c>
       <c r="N157" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1127</v>
       </c>
     </row>
@@ -11019,11 +11026,11 @@
         <v>10.833070855804641</v>
       </c>
       <c r="H158" s="2">
+        <f t="shared" si="8"/>
+        <v>69.649999999999991</v>
+      </c>
+      <c r="I158" s="2">
         <f t="shared" si="7"/>
-        <v>69.649999999999991</v>
-      </c>
-      <c r="I158" s="2">
-        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="J158" s="2">
@@ -11039,7 +11046,7 @@
         <v>2</v>
       </c>
       <c r="N158" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13930</v>
       </c>
     </row>
@@ -11066,11 +11073,11 @@
         <v>10.824488866063041</v>
       </c>
       <c r="H159" s="2">
+        <f t="shared" si="8"/>
+        <v>69.649999999999991</v>
+      </c>
+      <c r="I159" s="2">
         <f t="shared" si="7"/>
-        <v>69.649999999999991</v>
-      </c>
-      <c r="I159" s="2">
-        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="J159" s="2">
@@ -11086,7 +11093,7 @@
         <v>2</v>
       </c>
       <c r="N159" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13930</v>
       </c>
     </row>
@@ -11113,11 +11120,11 @@
         <v>6.6057616810944806</v>
       </c>
       <c r="H160" s="2">
+        <f t="shared" si="8"/>
+        <v>62.23</v>
+      </c>
+      <c r="I160" s="2">
         <f t="shared" si="7"/>
-        <v>62.23</v>
-      </c>
-      <c r="I160" s="2">
-        <f t="shared" si="6"/>
         <v>177.8</v>
       </c>
       <c r="J160" s="2">
@@ -11133,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="N160" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12446</v>
       </c>
     </row>
@@ -11160,11 +11167,11 @@
         <v>6.6057616810944806</v>
       </c>
       <c r="H161" s="2">
+        <f t="shared" si="8"/>
+        <v>62.23</v>
+      </c>
+      <c r="I161" s="2">
         <f t="shared" si="7"/>
-        <v>62.23</v>
-      </c>
-      <c r="I161" s="2">
-        <f t="shared" si="6"/>
         <v>177.8</v>
       </c>
       <c r="J161" s="2">
@@ -11180,7 +11187,7 @@
         <v>2</v>
       </c>
       <c r="N161" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12446</v>
       </c>
     </row>
@@ -11207,11 +11214,11 @@
         <v>7.6369609610944753</v>
       </c>
       <c r="H162" s="2">
+        <f t="shared" si="8"/>
+        <v>43.75</v>
+      </c>
+      <c r="I162" s="2">
         <f t="shared" si="7"/>
-        <v>43.75</v>
-      </c>
-      <c r="I162" s="2">
-        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="J162" s="2">
@@ -11227,7 +11234,7 @@
         <v>2</v>
       </c>
       <c r="N162" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8750</v>
       </c>
     </row>
@@ -11254,11 +11261,11 @@
         <v>7.6369609610944753</v>
       </c>
       <c r="H163" s="2">
+        <f t="shared" si="8"/>
+        <v>43.75</v>
+      </c>
+      <c r="I163" s="2">
         <f t="shared" si="7"/>
-        <v>43.75</v>
-      </c>
-      <c r="I163" s="2">
-        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="J163" s="2">
@@ -11274,7 +11281,7 @@
         <v>2</v>
       </c>
       <c r="N163" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8750</v>
       </c>
     </row>
@@ -11301,11 +11308,11 @@
         <v>7.6369609610944753</v>
       </c>
       <c r="H164" s="2">
+        <f t="shared" si="8"/>
+        <v>43.75</v>
+      </c>
+      <c r="I164" s="2">
         <f t="shared" si="7"/>
-        <v>43.75</v>
-      </c>
-      <c r="I164" s="2">
-        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="J164" s="2">
@@ -11321,7 +11328,7 @@
         <v>2</v>
       </c>
       <c r="N164" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8750</v>
       </c>
     </row>
@@ -11348,11 +11355,11 @@
         <v>4.1546211648491704</v>
       </c>
       <c r="H165" s="2">
+        <f t="shared" si="8"/>
+        <v>7.419999999999999</v>
+      </c>
+      <c r="I165" s="2">
         <f t="shared" si="7"/>
-        <v>7.419999999999999</v>
-      </c>
-      <c r="I165" s="2">
-        <f t="shared" si="6"/>
         <v>21.2</v>
       </c>
       <c r="J165" s="2">
@@ -11368,7 +11375,7 @@
         <v>2</v>
       </c>
       <c r="N165" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1484</v>
       </c>
     </row>
@@ -11395,11 +11402,11 @@
         <v>7.2729797300944803</v>
       </c>
       <c r="H166" s="2">
+        <f t="shared" si="8"/>
+        <v>31.499999999999996</v>
+      </c>
+      <c r="I166" s="2">
         <f t="shared" si="7"/>
-        <v>31.499999999999996</v>
-      </c>
-      <c r="I166" s="2">
-        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="J166" s="2">
@@ -11415,7 +11422,7 @@
         <v>2</v>
       </c>
       <c r="N166" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6300</v>
       </c>
     </row>
@@ -11442,11 +11449,11 @@
         <v>7.2729797300944803</v>
       </c>
       <c r="H167" s="2">
+        <f t="shared" si="8"/>
+        <v>31.499999999999996</v>
+      </c>
+      <c r="I167" s="2">
         <f t="shared" si="7"/>
-        <v>31.499999999999996</v>
-      </c>
-      <c r="I167" s="2">
-        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="J167" s="2">
@@ -11462,7 +11469,7 @@
         <v>2</v>
       </c>
       <c r="N167" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6300</v>
       </c>
     </row>
@@ -11489,11 +11496,11 @@
         <v>9.6990046198251978</v>
       </c>
       <c r="H168" s="2">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="I168" s="2">
         <f t="shared" si="7"/>
-        <v>4.375</v>
-      </c>
-      <c r="I168" s="2">
-        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
       <c r="J168" s="2">
@@ -11509,7 +11516,7 @@
         <v>2</v>
       </c>
       <c r="N168" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>875</v>
       </c>
     </row>
@@ -11536,11 +11543,11 @@
         <v>9.6990046198251978</v>
       </c>
       <c r="H169" s="2">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="I169" s="2">
         <f t="shared" si="7"/>
-        <v>4.375</v>
-      </c>
-      <c r="I169" s="2">
-        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
       <c r="J169" s="2">
@@ -11556,7 +11563,7 @@
         <v>2</v>
       </c>
       <c r="N169" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>875</v>
       </c>
     </row>
@@ -11583,11 +11590,11 @@
         <v>9.6990045874277158</v>
       </c>
       <c r="H170" s="2">
+        <f t="shared" si="8"/>
+        <v>4.83</v>
+      </c>
+      <c r="I170" s="2">
         <f t="shared" si="7"/>
-        <v>4.83</v>
-      </c>
-      <c r="I170" s="2">
-        <f t="shared" si="6"/>
         <v>13.8</v>
       </c>
       <c r="J170" s="2">
@@ -11603,7 +11610,7 @@
         <v>2</v>
       </c>
       <c r="N170" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>966</v>
       </c>
     </row>
@@ -11630,11 +11637,11 @@
         <v>7.3545471860944858</v>
       </c>
       <c r="H171" s="2">
+        <f t="shared" si="8"/>
+        <v>45.115000000000002</v>
+      </c>
+      <c r="I171" s="2">
         <f t="shared" si="7"/>
-        <v>45.115000000000002</v>
-      </c>
-      <c r="I171" s="2">
-        <f t="shared" si="6"/>
         <v>128.9</v>
       </c>
       <c r="J171" s="2">
@@ -11650,7 +11657,7 @@
         <v>2</v>
       </c>
       <c r="N171" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9023</v>
       </c>
     </row>
@@ -11677,11 +11684,11 @@
         <v>6.2590140280944793</v>
       </c>
       <c r="H172" s="2">
+        <f t="shared" si="8"/>
+        <v>103.32</v>
+      </c>
+      <c r="I172" s="2">
         <f t="shared" si="7"/>
-        <v>103.32</v>
-      </c>
-      <c r="I172" s="2">
-        <f t="shared" si="6"/>
         <v>295.2</v>
       </c>
       <c r="J172" s="2">
@@ -11697,7 +11704,7 @@
         <v>2</v>
       </c>
       <c r="N172" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20664</v>
       </c>
     </row>
@@ -11724,11 +11731,11 @@
         <v>6.6645621700944817</v>
       </c>
       <c r="H173" s="2">
+        <f t="shared" si="8"/>
+        <v>97.51</v>
+      </c>
+      <c r="I173" s="2">
         <f t="shared" si="7"/>
-        <v>97.51</v>
-      </c>
-      <c r="I173" s="2">
-        <f t="shared" si="6"/>
         <v>278.60000000000002</v>
       </c>
       <c r="J173" s="2">
@@ -11744,7 +11751,7 @@
         <v>2</v>
       </c>
       <c r="N173" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19502</v>
       </c>
     </row>
@@ -11771,11 +11778,11 @@
         <v>6.6645621700944817</v>
       </c>
       <c r="H174" s="2">
+        <f t="shared" si="8"/>
+        <v>97.51</v>
+      </c>
+      <c r="I174" s="2">
         <f t="shared" si="7"/>
-        <v>97.51</v>
-      </c>
-      <c r="I174" s="2">
-        <f t="shared" si="6"/>
         <v>278.60000000000002</v>
       </c>
       <c r="J174" s="2">
@@ -11791,7 +11798,7 @@
         <v>2</v>
       </c>
       <c r="N174" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19502</v>
       </c>
     </row>
@@ -11818,11 +11825,11 @@
         <v>6.6645621700944817</v>
       </c>
       <c r="H175" s="2">
+        <f t="shared" si="8"/>
+        <v>97.51</v>
+      </c>
+      <c r="I175" s="2">
         <f t="shared" si="7"/>
-        <v>97.51</v>
-      </c>
-      <c r="I175" s="2">
-        <f t="shared" si="6"/>
         <v>278.60000000000002</v>
       </c>
       <c r="J175" s="2">
@@ -11838,7 +11845,7 @@
         <v>2</v>
       </c>
       <c r="N175" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19502</v>
       </c>
     </row>
@@ -11865,11 +11872,11 @@
         <v>6.6645621700944817</v>
       </c>
       <c r="H176" s="2">
+        <f t="shared" si="8"/>
+        <v>97.51</v>
+      </c>
+      <c r="I176" s="2">
         <f t="shared" si="7"/>
-        <v>97.51</v>
-      </c>
-      <c r="I176" s="2">
-        <f t="shared" si="6"/>
         <v>278.60000000000002</v>
       </c>
       <c r="J176" s="2">
@@ -11885,7 +11892,7 @@
         <v>2</v>
       </c>
       <c r="N176" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19502</v>
       </c>
     </row>
@@ -11912,11 +11919,11 @@
         <v>6.9065583090944784</v>
       </c>
       <c r="H177" s="2">
+        <f t="shared" si="8"/>
+        <v>28.979999999999997</v>
+      </c>
+      <c r="I177" s="2">
         <f t="shared" si="7"/>
-        <v>28.979999999999997</v>
-      </c>
-      <c r="I177" s="2">
-        <f t="shared" si="6"/>
         <v>82.8</v>
       </c>
       <c r="J177" s="2">
@@ -11932,7 +11939,7 @@
         <v>2</v>
       </c>
       <c r="N177" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5796</v>
       </c>
     </row>
@@ -11959,11 +11966,11 @@
         <v>6.9065583090944784</v>
       </c>
       <c r="H178" s="2">
+        <f t="shared" si="8"/>
+        <v>28.979999999999997</v>
+      </c>
+      <c r="I178" s="2">
         <f t="shared" si="7"/>
-        <v>28.979999999999997</v>
-      </c>
-      <c r="I178" s="2">
-        <f t="shared" si="6"/>
         <v>82.8</v>
       </c>
       <c r="J178" s="2">
@@ -11979,7 +11986,7 @@
         <v>2</v>
       </c>
       <c r="N178" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5796</v>
       </c>
     </row>
@@ -12006,11 +12013,11 @@
         <v>7.5288702970944854</v>
       </c>
       <c r="H179" s="2">
+        <f t="shared" si="8"/>
+        <v>28.979999999999997</v>
+      </c>
+      <c r="I179" s="2">
         <f t="shared" si="7"/>
-        <v>28.979999999999997</v>
-      </c>
-      <c r="I179" s="2">
-        <f t="shared" si="6"/>
         <v>82.8</v>
       </c>
       <c r="J179" s="2">
@@ -12026,7 +12033,7 @@
         <v>2</v>
       </c>
       <c r="N179" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5796</v>
       </c>
     </row>
@@ -12053,11 +12060,11 @@
         <v>7.5288702970944854</v>
       </c>
       <c r="H180" s="2">
+        <f t="shared" si="8"/>
+        <v>28.979999999999997</v>
+      </c>
+      <c r="I180" s="2">
         <f t="shared" si="7"/>
-        <v>28.979999999999997</v>
-      </c>
-      <c r="I180" s="2">
-        <f t="shared" si="6"/>
         <v>82.8</v>
       </c>
       <c r="J180" s="2">
@@ -12073,7 +12080,7 @@
         <v>2</v>
       </c>
       <c r="N180" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5796</v>
       </c>
     </row>
@@ -12100,11 +12107,11 @@
         <v>8.5462197880944757</v>
       </c>
       <c r="H181" s="2">
+        <f t="shared" si="8"/>
+        <v>14.629999999999997</v>
+      </c>
+      <c r="I181" s="2">
         <f t="shared" si="7"/>
-        <v>14.629999999999997</v>
-      </c>
-      <c r="I181" s="2">
-        <f t="shared" si="6"/>
         <v>41.8</v>
       </c>
       <c r="J181" s="2">
@@ -12120,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="N181" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2926</v>
       </c>
     </row>
@@ -12147,11 +12154,11 @@
         <v>7.6280486752245276</v>
       </c>
       <c r="H182" s="2">
+        <f t="shared" si="8"/>
+        <v>0.42</v>
+      </c>
+      <c r="I182" s="2">
         <f t="shared" si="7"/>
-        <v>0.42</v>
-      </c>
-      <c r="I182" s="2">
-        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
       <c r="J182" s="2">
@@ -12167,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="N182" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
     </row>
@@ -12194,11 +12201,11 @@
         <v>7.6280496620519127</v>
       </c>
       <c r="H183" s="2">
+        <f t="shared" si="8"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="I183" s="2">
         <f t="shared" si="7"/>
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="I183" s="2">
-        <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
       <c r="J183" s="2">
@@ -12214,7 +12221,7 @@
         <v>2</v>
       </c>
       <c r="N183" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
     </row>
@@ -12241,11 +12248,11 @@
         <v>7.995426251847749</v>
       </c>
       <c r="H184" s="2">
+        <f t="shared" si="8"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="I184" s="2">
         <f t="shared" si="7"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="I184" s="2">
-        <f t="shared" si="6"/>
         <v>2.8</v>
       </c>
       <c r="J184" s="2">
@@ -12261,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="N184" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>196</v>
       </c>
     </row>
@@ -12288,11 +12295,11 @@
         <v>7.995426251847749</v>
       </c>
       <c r="H185" s="2">
+        <f t="shared" si="8"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="I185" s="2">
         <f t="shared" si="7"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="I185" s="2">
-        <f t="shared" si="6"/>
         <v>2.8</v>
       </c>
       <c r="J185" s="2">
@@ -12308,7 +12315,7 @@
         <v>2</v>
       </c>
       <c r="N185" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>196</v>
       </c>
     </row>
@@ -12335,11 +12342,11 @@
         <v>10.28427924123219</v>
       </c>
       <c r="H186" s="2">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="I186" s="2">
         <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="I186" s="2">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J186" s="2">
@@ -12355,7 +12362,7 @@
         <v>2</v>
       </c>
       <c r="N186" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>700</v>
       </c>
     </row>
@@ -12382,11 +12389,11 @@
         <v>7.8145594330944803</v>
       </c>
       <c r="H187" s="2">
+        <f t="shared" si="8"/>
+        <v>14.244999999999999</v>
+      </c>
+      <c r="I187" s="2">
         <f t="shared" si="7"/>
-        <v>14.244999999999999</v>
-      </c>
-      <c r="I187" s="2">
-        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="J187" s="2">
@@ -12402,7 +12409,7 @@
         <v>2</v>
       </c>
       <c r="N187" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2849</v>
       </c>
     </row>
@@ -12429,11 +12436,11 @@
         <v>7.8145594330944803</v>
       </c>
       <c r="H188" s="2">
+        <f t="shared" si="8"/>
+        <v>14.244999999999999</v>
+      </c>
+      <c r="I188" s="2">
         <f t="shared" si="7"/>
-        <v>14.244999999999999</v>
-      </c>
-      <c r="I188" s="2">
-        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="J188" s="2">
@@ -12449,7 +12456,7 @@
         <v>2</v>
       </c>
       <c r="N188" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2849</v>
       </c>
     </row>
@@ -12476,11 +12483,11 @@
         <v>7.8145594330944803</v>
       </c>
       <c r="H189" s="2">
+        <f t="shared" si="8"/>
+        <v>14.244999999999999</v>
+      </c>
+      <c r="I189" s="2">
         <f t="shared" si="7"/>
-        <v>14.244999999999999</v>
-      </c>
-      <c r="I189" s="2">
-        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="J189" s="2">
@@ -12496,7 +12503,7 @@
         <v>2</v>
       </c>
       <c r="N189" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2849</v>
       </c>
     </row>
@@ -12523,11 +12530,11 @@
         <v>9.1734369820944845</v>
       </c>
       <c r="H190" s="2">
+        <f t="shared" si="8"/>
+        <v>26.599999999999998</v>
+      </c>
+      <c r="I190" s="2">
         <f t="shared" si="7"/>
-        <v>26.599999999999998</v>
-      </c>
-      <c r="I190" s="2">
-        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="J190" s="2">
@@ -12543,7 +12550,7 @@
         <v>2</v>
       </c>
       <c r="N190" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5320</v>
       </c>
     </row>
@@ -12570,11 +12577,11 @@
         <v>8.2590255148491725</v>
       </c>
       <c r="H191" s="2">
+        <f t="shared" si="8"/>
+        <v>20.299999999999997</v>
+      </c>
+      <c r="I191" s="2">
         <f t="shared" si="7"/>
-        <v>20.299999999999997</v>
-      </c>
-      <c r="I191" s="2">
-        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="J191" s="2">
@@ -12590,7 +12597,7 @@
         <v>2</v>
       </c>
       <c r="N191" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4060</v>
       </c>
     </row>
@@ -12617,11 +12624,11 @@
         <v>8.2590255148491725</v>
       </c>
       <c r="H192" s="2">
+        <f t="shared" si="8"/>
+        <v>20.299999999999997</v>
+      </c>
+      <c r="I192" s="2">
         <f t="shared" si="7"/>
-        <v>20.299999999999997</v>
-      </c>
-      <c r="I192" s="2">
-        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="J192" s="2">
@@ -12637,7 +12644,7 @@
         <v>2</v>
       </c>
       <c r="N192" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4060</v>
       </c>
     </row>
@@ -12664,11 +12671,11 @@
         <v>3.5144911448491691</v>
       </c>
       <c r="H193" s="2">
+        <f t="shared" si="8"/>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="I193" s="2">
         <f t="shared" si="7"/>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="I193" s="2">
-        <f t="shared" si="6"/>
         <v>25.8</v>
       </c>
       <c r="J193" s="2">
@@ -12684,7 +12691,7 @@
         <v>2</v>
       </c>
       <c r="N193" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1806</v>
       </c>
     </row>
@@ -12711,11 +12718,11 @@
         <v>12.00656630889701</v>
       </c>
       <c r="H194" s="2">
+        <f t="shared" si="8"/>
+        <v>5.1099999999999994</v>
+      </c>
+      <c r="I194" s="2">
         <f t="shared" si="7"/>
-        <v>5.1099999999999994</v>
-      </c>
-      <c r="I194" s="2">
-        <f t="shared" si="6"/>
         <v>14.6</v>
       </c>
       <c r="J194" s="2">
@@ -12731,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="N194" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1022</v>
       </c>
     </row>
@@ -12758,11 +12765,11 @@
         <v>6.1899889230944831</v>
       </c>
       <c r="H195" s="2">
+        <f t="shared" si="8"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I195" s="2">
         <f t="shared" si="7"/>
-        <v>68.599999999999994</v>
-      </c>
-      <c r="I195" s="2">
-        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="J195" s="2">
@@ -12778,7 +12785,7 @@
         <v>2</v>
       </c>
       <c r="N195" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13720</v>
       </c>
     </row>
@@ -12805,11 +12812,11 @@
         <v>6.1899889230944831</v>
       </c>
       <c r="H196" s="2">
+        <f t="shared" si="8"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I196" s="2">
         <f t="shared" si="7"/>
-        <v>68.599999999999994</v>
-      </c>
-      <c r="I196" s="2">
-        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="J196" s="2">
@@ -12825,7 +12832,7 @@
         <v>2</v>
       </c>
       <c r="N196" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13720</v>
       </c>
     </row>
@@ -12852,11 +12859,11 @@
         <v>6.9381401380944814</v>
       </c>
       <c r="H197" s="2">
+        <f t="shared" si="8"/>
+        <v>62.79</v>
+      </c>
+      <c r="I197" s="2">
         <f t="shared" si="7"/>
-        <v>62.79</v>
-      </c>
-      <c r="I197" s="2">
-        <f t="shared" si="6"/>
         <v>179.4</v>
       </c>
       <c r="J197" s="2">
@@ -12872,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="N197" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12558</v>
       </c>
     </row>
@@ -12899,11 +12906,11 @@
         <v>5.9053372230944809</v>
       </c>
       <c r="H198" s="2">
+        <f t="shared" si="8"/>
+        <v>84.24499999999999</v>
+      </c>
+      <c r="I198" s="2">
         <f t="shared" si="7"/>
-        <v>84.24499999999999</v>
-      </c>
-      <c r="I198" s="2">
-        <f t="shared" si="6"/>
         <v>240.7</v>
       </c>
       <c r="J198" s="2">
@@ -12919,7 +12926,7 @@
         <v>2</v>
       </c>
       <c r="N198" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16849</v>
       </c>
     </row>
@@ -12946,11 +12953,11 @@
         <v>5.9053372230944809</v>
       </c>
       <c r="H199" s="2">
+        <f t="shared" si="8"/>
+        <v>84.24499999999999</v>
+      </c>
+      <c r="I199" s="2">
         <f t="shared" si="7"/>
-        <v>84.24499999999999</v>
-      </c>
-      <c r="I199" s="2">
-        <f t="shared" si="6"/>
         <v>240.7</v>
       </c>
       <c r="J199" s="2">
@@ -12966,7 +12973,7 @@
         <v>2</v>
       </c>
       <c r="N199" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16849</v>
       </c>
     </row>
@@ -12993,11 +13000,11 @@
         <v>11.52041153488786</v>
       </c>
       <c r="H200" s="2">
+        <f t="shared" si="8"/>
+        <v>3.2199999999999998</v>
+      </c>
+      <c r="I200" s="2">
         <f t="shared" si="7"/>
-        <v>3.2199999999999998</v>
-      </c>
-      <c r="I200" s="2">
-        <f t="shared" si="6"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="J200" s="2">
@@ -13013,7 +13020,7 @@
         <v>2</v>
       </c>
       <c r="N200" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>644</v>
       </c>
     </row>
@@ -13040,11 +13047,11 @@
         <v>10.353607382053029</v>
       </c>
       <c r="H201" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21</v>
+      </c>
+      <c r="I201" s="2">
         <f t="shared" si="7"/>
-        <v>0.21</v>
-      </c>
-      <c r="I201" s="2">
-        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="J201" s="2">
@@ -13060,7 +13067,7 @@
         <v>2</v>
       </c>
       <c r="N201" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
@@ -13087,11 +13094,11 @@
         <v>10.353607382053029</v>
       </c>
       <c r="H202" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21</v>
+      </c>
+      <c r="I202" s="2">
         <f t="shared" si="7"/>
-        <v>0.21</v>
-      </c>
-      <c r="I202" s="2">
-        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="J202" s="2">
@@ -13107,7 +13114,7 @@
         <v>2</v>
       </c>
       <c r="N202" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
@@ -13134,11 +13141,11 @@
         <v>10.353607382053029</v>
       </c>
       <c r="H203" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21</v>
+      </c>
+      <c r="I203" s="2">
         <f t="shared" si="7"/>
-        <v>0.21</v>
-      </c>
-      <c r="I203" s="2">
-        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="J203" s="2">
@@ -13154,7 +13161,7 @@
         <v>2</v>
       </c>
       <c r="N203" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
@@ -13181,11 +13188,11 @@
         <v>15.71887016843263</v>
       </c>
       <c r="H204" s="2">
+        <f t="shared" si="8"/>
+        <v>1.8549999999999998</v>
+      </c>
+      <c r="I204" s="2">
         <f t="shared" si="7"/>
-        <v>1.8549999999999998</v>
-      </c>
-      <c r="I204" s="2">
-        <f t="shared" si="6"/>
         <v>5.3</v>
       </c>
       <c r="J204" s="2">
@@ -13201,7 +13208,7 @@
         <v>2</v>
       </c>
       <c r="N204" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>371</v>
       </c>
     </row>
@@ -13228,11 +13235,11 @@
         <v>8.2035250580944794</v>
       </c>
       <c r="H205" s="2">
+        <f t="shared" si="8"/>
+        <v>20.264999999999997</v>
+      </c>
+      <c r="I205" s="2">
         <f t="shared" si="7"/>
-        <v>20.264999999999997</v>
-      </c>
-      <c r="I205" s="2">
-        <f t="shared" si="6"/>
         <v>57.9</v>
       </c>
       <c r="J205" s="2">
@@ -13248,7 +13255,7 @@
         <v>2</v>
       </c>
       <c r="N205" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4053</v>
       </c>
     </row>
@@ -13275,11 +13282,11 @@
         <v>6.2902541950944801</v>
       </c>
       <c r="H206" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62.755000000000003</v>
       </c>
       <c r="I206" s="2">
-        <f t="shared" ref="I206:I269" si="9">D206</f>
+        <f t="shared" ref="I206:I269" si="10">D206</f>
         <v>179.3</v>
       </c>
       <c r="J206" s="2">
@@ -13295,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="N206" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12551</v>
       </c>
     </row>
@@ -13322,11 +13329,11 @@
         <v>11.48641890449141</v>
       </c>
       <c r="H207" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.625</v>
       </c>
       <c r="I207" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5</v>
       </c>
       <c r="J207" s="2">
@@ -13342,7 +13349,7 @@
         <v>2</v>
       </c>
       <c r="N207" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>525</v>
       </c>
     </row>
@@ -13369,11 +13376,11 @@
         <v>7.0190543210677969</v>
       </c>
       <c r="H208" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
       <c r="I208" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J208" s="2">
@@ -13389,7 +13396,7 @@
         <v>2</v>
       </c>
       <c r="N208" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>350</v>
       </c>
     </row>
@@ -13416,11 +13423,11 @@
         <v>7.019054321067796</v>
       </c>
       <c r="H209" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.625</v>
       </c>
       <c r="I209" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5</v>
       </c>
       <c r="J209" s="2">
@@ -13436,7 +13443,7 @@
         <v>2</v>
       </c>
       <c r="N209" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>525</v>
       </c>
     </row>
@@ -13463,11 +13470,11 @@
         <v>2.2354001945623878</v>
       </c>
       <c r="H210" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.48999999999999994</v>
       </c>
       <c r="I210" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4</v>
       </c>
       <c r="J210" s="2">
@@ -13483,7 +13490,7 @@
         <v>2</v>
       </c>
       <c r="N210" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
     </row>
@@ -13510,11 +13517,11 @@
         <v>11.40545658388136</v>
       </c>
       <c r="H211" s="2">
-        <f t="shared" ref="H211:H274" si="10">0.35*D211</f>
+        <f t="shared" ref="H211:H274" si="11">0.35*D211</f>
         <v>2.415</v>
       </c>
       <c r="I211" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.9</v>
       </c>
       <c r="J211" s="2">
@@ -13530,7 +13537,7 @@
         <v>2</v>
       </c>
       <c r="N211" s="2">
-        <f t="shared" ref="N211:N274" si="11">D211*70</f>
+        <f t="shared" ref="N211:N274" si="12">D211*70</f>
         <v>483</v>
       </c>
     </row>
@@ -13557,11 +13564,11 @@
         <v>11.59378025786337</v>
       </c>
       <c r="H212" s="2">
+        <f t="shared" si="11"/>
+        <v>2.415</v>
+      </c>
+      <c r="I212" s="2">
         <f t="shared" si="10"/>
-        <v>2.415</v>
-      </c>
-      <c r="I212" s="2">
-        <f t="shared" si="9"/>
         <v>6.9</v>
       </c>
       <c r="J212" s="2">
@@ -13577,7 +13584,7 @@
         <v>2</v>
       </c>
       <c r="N212" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>483</v>
       </c>
     </row>
@@ -13604,11 +13611,11 @@
         <v>10.648168461401999</v>
       </c>
       <c r="H213" s="2">
+        <f t="shared" si="11"/>
+        <v>2.415</v>
+      </c>
+      <c r="I213" s="2">
         <f t="shared" si="10"/>
-        <v>2.415</v>
-      </c>
-      <c r="I213" s="2">
-        <f t="shared" si="9"/>
         <v>6.9</v>
       </c>
       <c r="J213" s="2">
@@ -13624,7 +13631,7 @@
         <v>2</v>
       </c>
       <c r="N213" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>483</v>
       </c>
     </row>
@@ -13651,11 +13658,11 @@
         <v>7.3291334642110701</v>
       </c>
       <c r="H214" s="2">
+        <f t="shared" si="11"/>
+        <v>1.19</v>
+      </c>
+      <c r="I214" s="2">
         <f t="shared" si="10"/>
-        <v>1.19</v>
-      </c>
-      <c r="I214" s="2">
-        <f t="shared" si="9"/>
         <v>3.4</v>
       </c>
       <c r="J214" s="2">
@@ -13671,7 +13678,7 @@
         <v>2</v>
       </c>
       <c r="N214" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>238</v>
       </c>
     </row>
@@ -13698,11 +13705,11 @@
         <v>7.8659356896094001</v>
       </c>
       <c r="H215" s="2">
+        <f t="shared" si="11"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="I215" s="2">
         <f t="shared" si="10"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="I215" s="2">
-        <f t="shared" si="9"/>
         <v>2.8</v>
       </c>
       <c r="J215" s="2">
@@ -13718,7 +13725,7 @@
         <v>2</v>
       </c>
       <c r="N215" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
     </row>
@@ -13745,11 +13752,11 @@
         <v>8.5634227183603855</v>
       </c>
       <c r="H216" s="2">
+        <f t="shared" si="11"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="I216" s="2">
         <f t="shared" si="10"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="I216" s="2">
-        <f t="shared" si="9"/>
         <v>2.8</v>
       </c>
       <c r="J216" s="2">
@@ -13765,7 +13772,7 @@
         <v>2</v>
       </c>
       <c r="N216" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
     </row>
@@ -13792,11 +13799,11 @@
         <v>7.7295697951540836</v>
       </c>
       <c r="H217" s="2">
+        <f t="shared" si="11"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="I217" s="2">
         <f t="shared" si="10"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="I217" s="2">
-        <f t="shared" si="9"/>
         <v>2.8</v>
       </c>
       <c r="J217" s="2">
@@ -13812,7 +13819,7 @@
         <v>2</v>
       </c>
       <c r="N217" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
     </row>
@@ -13839,11 +13846,11 @@
         <v>7.7727913572829248</v>
       </c>
       <c r="H218" s="2">
+        <f t="shared" si="11"/>
+        <v>2.625</v>
+      </c>
+      <c r="I218" s="2">
         <f t="shared" si="10"/>
-        <v>2.625</v>
-      </c>
-      <c r="I218" s="2">
-        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
       <c r="J218" s="2">
@@ -13859,7 +13866,7 @@
         <v>2</v>
       </c>
       <c r="N218" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>525</v>
       </c>
     </row>
@@ -13886,11 +13893,11 @@
         <v>7.5304226188491734</v>
       </c>
       <c r="H219" s="2">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="I219" s="2">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="I219" s="2">
-        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="J219" s="2">
@@ -13906,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="N219" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3500</v>
       </c>
     </row>
@@ -13933,11 +13940,11 @@
         <v>7.5304226188491734</v>
       </c>
       <c r="H220" s="2">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="I220" s="2">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="I220" s="2">
-        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="J220" s="2">
@@ -13953,7 +13960,7 @@
         <v>2</v>
       </c>
       <c r="N220" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3500</v>
       </c>
     </row>
@@ -13980,11 +13987,11 @@
         <v>7.5304226188491734</v>
       </c>
       <c r="H221" s="2">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="I221" s="2">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="I221" s="2">
-        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="J221" s="2">
@@ -14000,7 +14007,7 @@
         <v>2</v>
       </c>
       <c r="N221" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3500</v>
       </c>
     </row>
@@ -14027,11 +14034,11 @@
         <v>7.5304226188491734</v>
       </c>
       <c r="H222" s="2">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="I222" s="2">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="I222" s="2">
-        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="J222" s="2">
@@ -14047,7 +14054,7 @@
         <v>2</v>
       </c>
       <c r="N222" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3500</v>
       </c>
     </row>
@@ -14074,11 +14081,11 @@
         <v>7.5304226188491734</v>
       </c>
       <c r="H223" s="2">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="I223" s="2">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="I223" s="2">
-        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="J223" s="2">
@@ -14094,7 +14101,7 @@
         <v>2</v>
       </c>
       <c r="N223" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3500</v>
       </c>
     </row>
@@ -14121,11 +14128,11 @@
         <v>7.5304226188491734</v>
       </c>
       <c r="H224" s="2">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="I224" s="2">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="I224" s="2">
-        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="J224" s="2">
@@ -14141,7 +14148,7 @@
         <v>2</v>
       </c>
       <c r="N224" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3500</v>
       </c>
     </row>
@@ -14168,11 +14175,11 @@
         <v>7.5304226188491734</v>
       </c>
       <c r="H225" s="2">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="I225" s="2">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="I225" s="2">
-        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="J225" s="2">
@@ -14188,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="N225" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3500</v>
       </c>
     </row>
@@ -14215,11 +14222,11 @@
         <v>6.5045390758611186</v>
       </c>
       <c r="H226" s="2">
+        <f t="shared" si="11"/>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="I226" s="2">
         <f t="shared" si="10"/>
-        <v>33.599999999999994</v>
-      </c>
-      <c r="I226" s="2">
-        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="J226" s="2">
@@ -14235,7 +14242,7 @@
         <v>2</v>
       </c>
       <c r="N226" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6720</v>
       </c>
     </row>
@@ -14262,11 +14269,11 @@
         <v>15.15788771937987</v>
       </c>
       <c r="H227" s="2">
+        <f t="shared" si="11"/>
+        <v>7.4550000000000001</v>
+      </c>
+      <c r="I227" s="2">
         <f t="shared" si="10"/>
-        <v>7.4550000000000001</v>
-      </c>
-      <c r="I227" s="2">
-        <f t="shared" si="9"/>
         <v>21.3</v>
       </c>
       <c r="J227" s="2">
@@ -14282,7 +14289,7 @@
         <v>2</v>
       </c>
       <c r="N227" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1491</v>
       </c>
     </row>
@@ -14309,11 +14316,11 @@
         <v>8.0981994542591114</v>
       </c>
       <c r="H228" s="2">
+        <f t="shared" si="11"/>
+        <v>15.26</v>
+      </c>
+      <c r="I228" s="2">
         <f t="shared" si="10"/>
-        <v>15.26</v>
-      </c>
-      <c r="I228" s="2">
-        <f t="shared" si="9"/>
         <v>43.6</v>
       </c>
       <c r="J228" s="2">
@@ -14329,7 +14336,7 @@
         <v>2</v>
       </c>
       <c r="N228" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3052</v>
       </c>
     </row>
@@ -14356,11 +14363,11 @@
         <v>10.037131561379621</v>
       </c>
       <c r="H229" s="2">
+        <f t="shared" si="11"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I229" s="2">
         <f t="shared" si="10"/>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="I229" s="2">
-        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="J229" s="2">
@@ -14376,7 +14383,7 @@
         <v>2</v>
       </c>
       <c r="N229" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
     </row>
@@ -14403,11 +14410,11 @@
         <v>10.037131561379621</v>
       </c>
       <c r="H230" s="2">
+        <f t="shared" si="11"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I230" s="2">
         <f t="shared" si="10"/>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="I230" s="2">
-        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="J230" s="2">
@@ -14423,7 +14430,7 @@
         <v>2</v>
       </c>
       <c r="N230" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
     </row>
@@ -14450,11 +14457,11 @@
         <v>10.037131561379621</v>
       </c>
       <c r="H231" s="2">
+        <f t="shared" si="11"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I231" s="2">
         <f t="shared" si="10"/>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="I231" s="2">
-        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="J231" s="2">
@@ -14470,7 +14477,7 @@
         <v>2</v>
       </c>
       <c r="N231" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
     </row>
@@ -14497,11 +14504,11 @@
         <v>10.037128694379479</v>
       </c>
       <c r="H232" s="2">
+        <f t="shared" si="11"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="I232" s="2">
         <f t="shared" si="10"/>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="I232" s="2">
-        <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
       <c r="J232" s="2">
@@ -14517,7 +14524,7 @@
         <v>2</v>
       </c>
       <c r="N232" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
     </row>
@@ -14544,11 +14551,11 @@
         <v>8.0452127409004515</v>
       </c>
       <c r="H233" s="2">
+        <f t="shared" si="11"/>
+        <v>0.84</v>
+      </c>
+      <c r="I233" s="2">
         <f t="shared" si="10"/>
-        <v>0.84</v>
-      </c>
-      <c r="I233" s="2">
-        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
       <c r="J233" s="2">
@@ -14564,7 +14571,7 @@
         <v>2</v>
       </c>
       <c r="N233" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>168</v>
       </c>
     </row>
@@ -14591,11 +14598,11 @@
         <v>16.949752810831569</v>
       </c>
       <c r="H234" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4349999999999998</v>
+      </c>
+      <c r="I234" s="2">
         <f t="shared" si="10"/>
-        <v>1.4349999999999998</v>
-      </c>
-      <c r="I234" s="2">
-        <f t="shared" si="9"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="J234" s="2">
@@ -14611,7 +14618,7 @@
         <v>2</v>
       </c>
       <c r="N234" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>287</v>
       </c>
     </row>
@@ -14638,11 +14645,11 @@
         <v>6.1010289390944834</v>
       </c>
       <c r="H235" s="2">
+        <f t="shared" si="11"/>
+        <v>64.47</v>
+      </c>
+      <c r="I235" s="2">
         <f t="shared" si="10"/>
-        <v>64.47</v>
-      </c>
-      <c r="I235" s="2">
-        <f t="shared" si="9"/>
         <v>184.2</v>
       </c>
       <c r="J235" s="2">
@@ -14658,7 +14665,7 @@
         <v>2</v>
       </c>
       <c r="N235" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12894</v>
       </c>
     </row>
@@ -14685,11 +14692,11 @@
         <v>6.1010289390944834</v>
       </c>
       <c r="H236" s="2">
+        <f t="shared" si="11"/>
+        <v>64.47</v>
+      </c>
+      <c r="I236" s="2">
         <f t="shared" si="10"/>
-        <v>64.47</v>
-      </c>
-      <c r="I236" s="2">
-        <f t="shared" si="9"/>
         <v>184.2</v>
       </c>
       <c r="J236" s="2">
@@ -14705,7 +14712,7 @@
         <v>2</v>
       </c>
       <c r="N236" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12894</v>
       </c>
     </row>
@@ -14732,11 +14739,11 @@
         <v>44.735034474722177</v>
       </c>
       <c r="H237" s="2">
+        <f t="shared" si="11"/>
+        <v>4.6199999999999992</v>
+      </c>
+      <c r="I237" s="2">
         <f t="shared" si="10"/>
-        <v>4.6199999999999992</v>
-      </c>
-      <c r="I237" s="2">
-        <f t="shared" si="9"/>
         <v>13.2</v>
       </c>
       <c r="J237" s="2">
@@ -14752,7 +14759,7 @@
         <v>2</v>
       </c>
       <c r="N237" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>924</v>
       </c>
     </row>
@@ -14779,11 +14786,11 @@
         <v>8.3293485690362772</v>
       </c>
       <c r="H238" s="2">
+        <f t="shared" si="11"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I238" s="2">
         <f t="shared" si="10"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I238" s="2">
-        <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
       <c r="J238" s="2">
@@ -14799,7 +14806,7 @@
         <v>2</v>
       </c>
       <c r="N238" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>182</v>
       </c>
     </row>
@@ -14826,11 +14833,11 @@
         <v>8.3293485690362772</v>
       </c>
       <c r="H239" s="2">
+        <f t="shared" si="11"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I239" s="2">
         <f t="shared" si="10"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I239" s="2">
-        <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
       <c r="J239" s="2">
@@ -14846,7 +14853,7 @@
         <v>2</v>
       </c>
       <c r="N239" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>182</v>
       </c>
     </row>
@@ -14873,11 +14880,11 @@
         <v>8.3293485690362772</v>
       </c>
       <c r="H240" s="2">
+        <f t="shared" si="11"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I240" s="2">
         <f t="shared" si="10"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I240" s="2">
-        <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
       <c r="J240" s="2">
@@ -14893,7 +14900,7 @@
         <v>2</v>
       </c>
       <c r="N240" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>182</v>
       </c>
     </row>
@@ -14920,11 +14927,11 @@
         <v>8.3293485690362772</v>
       </c>
       <c r="H241" s="2">
+        <f t="shared" si="11"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I241" s="2">
         <f t="shared" si="10"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I241" s="2">
-        <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
       <c r="J241" s="2">
@@ -14940,7 +14947,7 @@
         <v>2</v>
       </c>
       <c r="N241" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>182</v>
       </c>
     </row>
@@ -14967,11 +14974,11 @@
         <v>14.44346052384917</v>
       </c>
       <c r="H242" s="2">
+        <f t="shared" si="11"/>
+        <v>14.629999999999997</v>
+      </c>
+      <c r="I242" s="2">
         <f t="shared" si="10"/>
-        <v>14.629999999999997</v>
-      </c>
-      <c r="I242" s="2">
-        <f t="shared" si="9"/>
         <v>41.8</v>
       </c>
       <c r="J242" s="2">
@@ -14987,7 +14994,7 @@
         <v>2</v>
       </c>
       <c r="N242" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2926</v>
       </c>
     </row>
@@ -15014,11 +15021,11 @@
         <v>17.346585281849158</v>
       </c>
       <c r="H243" s="2">
+        <f t="shared" si="11"/>
+        <v>7.63</v>
+      </c>
+      <c r="I243" s="2">
         <f t="shared" si="10"/>
-        <v>7.63</v>
-      </c>
-      <c r="I243" s="2">
-        <f t="shared" si="9"/>
         <v>21.8</v>
       </c>
       <c r="J243" s="2">
@@ -15034,7 +15041,7 @@
         <v>2</v>
       </c>
       <c r="N243" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1526</v>
       </c>
     </row>
@@ -15061,11 +15068,11 @@
         <v>8.3690628395197812</v>
       </c>
       <c r="H244" s="2">
+        <f t="shared" si="11"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I244" s="2">
         <f t="shared" si="10"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I244" s="2">
-        <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
       <c r="J244" s="2">
@@ -15081,7 +15088,7 @@
         <v>2</v>
       </c>
       <c r="N244" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>182</v>
       </c>
     </row>
@@ -15108,11 +15115,11 @@
         <v>8.3690628395197812</v>
       </c>
       <c r="H245" s="2">
+        <f t="shared" si="11"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I245" s="2">
         <f t="shared" si="10"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I245" s="2">
-        <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
       <c r="J245" s="2">
@@ -15128,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="N245" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>182</v>
       </c>
     </row>
@@ -15155,11 +15162,11 @@
         <v>9.4876519428491726</v>
       </c>
       <c r="H246" s="2">
+        <f t="shared" si="11"/>
+        <v>6.51</v>
+      </c>
+      <c r="I246" s="2">
         <f t="shared" si="10"/>
-        <v>6.51</v>
-      </c>
-      <c r="I246" s="2">
-        <f t="shared" si="9"/>
         <v>18.600000000000001</v>
       </c>
       <c r="J246" s="2">
@@ -15175,7 +15182,7 @@
         <v>2</v>
       </c>
       <c r="N246" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1302</v>
       </c>
     </row>
@@ -15202,11 +15209,11 @@
         <v>10.678412021416429</v>
       </c>
       <c r="H247" s="2">
+        <f t="shared" si="11"/>
+        <v>65.38</v>
+      </c>
+      <c r="I247" s="2">
         <f t="shared" si="10"/>
-        <v>65.38</v>
-      </c>
-      <c r="I247" s="2">
-        <f t="shared" si="9"/>
         <v>186.8</v>
       </c>
       <c r="J247" s="2">
@@ -15222,7 +15229,7 @@
         <v>2</v>
       </c>
       <c r="N247" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13076</v>
       </c>
     </row>
@@ -15249,11 +15256,11 @@
         <v>18.639780015849169</v>
       </c>
       <c r="H248" s="2">
+        <f t="shared" si="11"/>
+        <v>8.9249999999999989</v>
+      </c>
+      <c r="I248" s="2">
         <f t="shared" si="10"/>
-        <v>8.9249999999999989</v>
-      </c>
-      <c r="I248" s="2">
-        <f t="shared" si="9"/>
         <v>25.5</v>
       </c>
       <c r="J248" s="2">
@@ -15269,7 +15276,7 @@
         <v>2</v>
       </c>
       <c r="N248" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1785</v>
       </c>
     </row>
@@ -15296,11 +15303,11 @@
         <v>10.73910941972812</v>
       </c>
       <c r="H249" s="2">
+        <f t="shared" si="11"/>
+        <v>204.75</v>
+      </c>
+      <c r="I249" s="2">
         <f t="shared" si="10"/>
-        <v>204.75</v>
-      </c>
-      <c r="I249" s="2">
-        <f t="shared" si="9"/>
         <v>585</v>
       </c>
       <c r="J249" s="2">
@@ -15316,7 +15323,7 @@
         <v>3.17</v>
       </c>
       <c r="N249" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40950</v>
       </c>
     </row>
@@ -15343,11 +15350,11 @@
         <v>11.693979860070669</v>
       </c>
       <c r="H250" s="2">
+        <f t="shared" si="11"/>
+        <v>203</v>
+      </c>
+      <c r="I250" s="2">
         <f t="shared" si="10"/>
-        <v>203</v>
-      </c>
-      <c r="I250" s="2">
-        <f t="shared" si="9"/>
         <v>580</v>
       </c>
       <c r="J250" s="2">
@@ -15363,7 +15370,7 @@
         <v>3.17</v>
       </c>
       <c r="N250" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40600</v>
       </c>
     </row>
@@ -15390,11 +15397,11 @@
         <v>19.729914147021201</v>
       </c>
       <c r="H251" s="2">
+        <f t="shared" si="11"/>
+        <v>6.125</v>
+      </c>
+      <c r="I251" s="2">
         <f t="shared" si="10"/>
-        <v>6.125</v>
-      </c>
-      <c r="I251" s="2">
-        <f t="shared" si="9"/>
         <v>17.5</v>
       </c>
       <c r="J251" s="2">
@@ -15410,7 +15417,7 @@
         <v>2</v>
       </c>
       <c r="N251" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1225</v>
       </c>
     </row>
@@ -15437,11 +15444,11 @@
         <v>19.729914147021201</v>
       </c>
       <c r="H252" s="2">
+        <f t="shared" si="11"/>
+        <v>6.125</v>
+      </c>
+      <c r="I252" s="2">
         <f t="shared" si="10"/>
-        <v>6.125</v>
-      </c>
-      <c r="I252" s="2">
-        <f t="shared" si="9"/>
         <v>17.5</v>
       </c>
       <c r="J252" s="2">
@@ -15457,7 +15464,7 @@
         <v>2</v>
       </c>
       <c r="N252" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1225</v>
       </c>
     </row>
@@ -15484,11 +15491,11 @@
         <v>7.072338443599028</v>
       </c>
       <c r="H253" s="2">
+        <f t="shared" si="11"/>
+        <v>0.77</v>
+      </c>
+      <c r="I253" s="2">
         <f t="shared" si="10"/>
-        <v>0.77</v>
-      </c>
-      <c r="I253" s="2">
-        <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="J253" s="2">
@@ -15504,7 +15511,7 @@
         <v>2</v>
       </c>
       <c r="N253" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
     </row>
@@ -15531,11 +15538,11 @@
         <v>7.072338443599028</v>
       </c>
       <c r="H254" s="2">
+        <f t="shared" si="11"/>
+        <v>0.77</v>
+      </c>
+      <c r="I254" s="2">
         <f t="shared" si="10"/>
-        <v>0.77</v>
-      </c>
-      <c r="I254" s="2">
-        <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="J254" s="2">
@@ -15551,7 +15558,7 @@
         <v>2</v>
       </c>
       <c r="N254" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
     </row>
@@ -15578,11 +15585,11 @@
         <v>7.0724109600885141</v>
       </c>
       <c r="H255" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="I255" s="2">
         <f t="shared" si="10"/>
-        <v>1.9599999999999997</v>
-      </c>
-      <c r="I255" s="2">
-        <f t="shared" si="9"/>
         <v>5.6</v>
       </c>
       <c r="J255" s="2">
@@ -15598,7 +15605,7 @@
         <v>2</v>
       </c>
       <c r="N255" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>392</v>
       </c>
     </row>
@@ -15625,11 +15632,11 @@
         <v>7.072394115762811</v>
       </c>
       <c r="H256" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1549999999999998</v>
+      </c>
+      <c r="I256" s="2">
         <f t="shared" si="10"/>
-        <v>1.1549999999999998</v>
-      </c>
-      <c r="I256" s="2">
-        <f t="shared" si="9"/>
         <v>3.3</v>
       </c>
       <c r="J256" s="2">
@@ -15645,7 +15652,7 @@
         <v>2</v>
       </c>
       <c r="N256" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
     </row>
@@ -15672,11 +15679,11 @@
         <v>7.0724157965554753</v>
       </c>
       <c r="H257" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4</v>
+      </c>
+      <c r="I257" s="2">
         <f t="shared" si="10"/>
-        <v>1.4</v>
-      </c>
-      <c r="I257" s="2">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J257" s="2">
@@ -15692,7 +15699,7 @@
         <v>2</v>
       </c>
       <c r="N257" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
     </row>
@@ -15719,11 +15726,11 @@
         <v>15.416662963350239</v>
       </c>
       <c r="H258" s="2">
+        <f t="shared" si="11"/>
+        <v>9.9049999999999994</v>
+      </c>
+      <c r="I258" s="2">
         <f t="shared" si="10"/>
-        <v>9.9049999999999994</v>
-      </c>
-      <c r="I258" s="2">
-        <f t="shared" si="9"/>
         <v>28.3</v>
       </c>
       <c r="J258" s="2">
@@ -15739,7 +15746,7 @@
         <v>3.17</v>
       </c>
       <c r="N258" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1981</v>
       </c>
     </row>
@@ -15766,11 +15773,11 @@
         <v>32.704368559440887</v>
       </c>
       <c r="H259" s="2">
+        <f t="shared" si="11"/>
+        <v>6.3</v>
+      </c>
+      <c r="I259" s="2">
         <f t="shared" si="10"/>
-        <v>6.3</v>
-      </c>
-      <c r="I259" s="2">
-        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="J259" s="2">
@@ -15786,7 +15793,7 @@
         <v>2</v>
       </c>
       <c r="N259" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1260</v>
       </c>
     </row>
@@ -15813,11 +15820,11 @@
         <v>12.237536700849169</v>
       </c>
       <c r="H260" s="2">
+        <f t="shared" si="11"/>
+        <v>8.75</v>
+      </c>
+      <c r="I260" s="2">
         <f t="shared" si="10"/>
-        <v>8.75</v>
-      </c>
-      <c r="I260" s="2">
-        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="J260" s="2">
@@ -15833,7 +15840,7 @@
         <v>2</v>
       </c>
       <c r="N260" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1750</v>
       </c>
     </row>
@@ -15860,11 +15867,11 @@
         <v>12.237536700849169</v>
       </c>
       <c r="H261" s="2">
+        <f t="shared" si="11"/>
+        <v>8.75</v>
+      </c>
+      <c r="I261" s="2">
         <f t="shared" si="10"/>
-        <v>8.75</v>
-      </c>
-      <c r="I261" s="2">
-        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="J261" s="2">
@@ -15880,7 +15887,7 @@
         <v>2</v>
       </c>
       <c r="N261" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1750</v>
       </c>
     </row>
@@ -15907,11 +15914,11 @@
         <v>12.237536700849169</v>
       </c>
       <c r="H262" s="2">
+        <f t="shared" si="11"/>
+        <v>8.75</v>
+      </c>
+      <c r="I262" s="2">
         <f t="shared" si="10"/>
-        <v>8.75</v>
-      </c>
-      <c r="I262" s="2">
-        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="J262" s="2">
@@ -15927,7 +15934,7 @@
         <v>2</v>
       </c>
       <c r="N262" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1750</v>
       </c>
     </row>
@@ -15954,11 +15961,11 @@
         <v>12.237536700849169</v>
       </c>
       <c r="H263" s="2">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="I263" s="2">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="I263" s="2">
-        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="J263" s="2">
@@ -15974,7 +15981,7 @@
         <v>2</v>
       </c>
       <c r="N263" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1400</v>
       </c>
     </row>
@@ -16001,11 +16008,11 @@
         <v>12.237536700849169</v>
       </c>
       <c r="H264" s="2">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="I264" s="2">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="I264" s="2">
-        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="J264" s="2">
@@ -16021,7 +16028,7 @@
         <v>2</v>
       </c>
       <c r="N264" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1400</v>
       </c>
     </row>
@@ -16048,11 +16055,11 @@
         <v>57.713696531873062</v>
       </c>
       <c r="H265" s="2">
+        <f t="shared" si="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="I265" s="2">
         <f t="shared" si="10"/>
-        <v>0.7</v>
-      </c>
-      <c r="I265" s="2">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="J265" s="2">
@@ -16068,7 +16075,7 @@
         <v>3.17</v>
       </c>
       <c r="N265" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
     </row>
@@ -16095,11 +16102,11 @@
         <v>132.63181660790869</v>
       </c>
       <c r="H266" s="2">
+        <f t="shared" si="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="I266" s="2">
         <f t="shared" si="10"/>
-        <v>0.7</v>
-      </c>
-      <c r="I266" s="2">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="J266" s="2">
@@ -16115,7 +16122,7 @@
         <v>3.17</v>
       </c>
       <c r="N266" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
     </row>
@@ -16142,11 +16149,11 @@
         <v>25.050289837283511</v>
       </c>
       <c r="H267" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="I267" s="2">
         <f t="shared" si="10"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="I267" s="2">
-        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="J267" s="2">
@@ -16162,7 +16169,7 @@
         <v>3.17</v>
       </c>
       <c r="N267" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
     </row>
@@ -16189,11 +16196,11 @@
         <v>0.81724124445453583</v>
       </c>
       <c r="H268" s="2">
+        <f t="shared" si="11"/>
+        <v>6.51</v>
+      </c>
+      <c r="I268" s="2">
         <f t="shared" si="10"/>
-        <v>6.51</v>
-      </c>
-      <c r="I268" s="2">
-        <f t="shared" si="9"/>
         <v>18.600000000000001</v>
       </c>
       <c r="J268" s="2">
@@ -16209,7 +16216,7 @@
         <v>2</v>
       </c>
       <c r="N268" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1302</v>
       </c>
     </row>
@@ -16236,11 +16243,11 @@
         <v>13.48144182309183</v>
       </c>
       <c r="H269" s="2">
+        <f t="shared" si="11"/>
+        <v>17.849999999999998</v>
+      </c>
+      <c r="I269" s="2">
         <f t="shared" si="10"/>
-        <v>17.849999999999998</v>
-      </c>
-      <c r="I269" s="2">
-        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="J269" s="2">
@@ -16256,7 +16263,7 @@
         <v>2</v>
       </c>
       <c r="N269" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3570</v>
       </c>
     </row>
@@ -16283,11 +16290,11 @@
         <v>14.504529099512609</v>
       </c>
       <c r="H270" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17.849999999999998</v>
       </c>
       <c r="I270" s="2">
-        <f t="shared" ref="I270:I333" si="12">D270</f>
+        <f t="shared" ref="I270:I333" si="13">D270</f>
         <v>51</v>
       </c>
       <c r="J270" s="2">
@@ -16303,7 +16310,7 @@
         <v>2</v>
       </c>
       <c r="N270" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3570</v>
       </c>
     </row>
@@ -16330,11 +16337,11 @@
         <v>11.270158084430189</v>
       </c>
       <c r="H271" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17.849999999999998</v>
       </c>
       <c r="I271" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
       <c r="J271" s="2">
@@ -16350,7 +16357,7 @@
         <v>2</v>
       </c>
       <c r="N271" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3570</v>
       </c>
     </row>
@@ -16377,11 +16384,11 @@
         <v>8.2495444974183822</v>
       </c>
       <c r="H272" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17.849999999999998</v>
       </c>
       <c r="I272" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
       <c r="J272" s="2">
@@ -16397,7 +16404,7 @@
         <v>2</v>
       </c>
       <c r="N272" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3570</v>
       </c>
     </row>
@@ -16424,11 +16431,11 @@
         <v>23.639300347849169</v>
       </c>
       <c r="H273" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3849999999999998</v>
       </c>
       <c r="I273" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.1</v>
       </c>
       <c r="J273" s="2">
@@ -16444,7 +16451,7 @@
         <v>2</v>
       </c>
       <c r="N273" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1477</v>
       </c>
     </row>
@@ -16471,11 +16478,11 @@
         <v>9.4019768148491707</v>
       </c>
       <c r="H274" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.9499999999999993</v>
       </c>
       <c r="I274" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="J274" s="2">
@@ -16491,7 +16498,7 @@
         <v>2</v>
       </c>
       <c r="N274" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1190</v>
       </c>
     </row>
@@ -16518,11 +16525,11 @@
         <v>8.6406668351932616</v>
       </c>
       <c r="H275" s="2">
-        <f t="shared" ref="H275:H338" si="13">0.35*D275</f>
+        <f t="shared" ref="H275:H338" si="14">0.35*D275</f>
         <v>0.7</v>
       </c>
       <c r="I275" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J275" s="2">
@@ -16538,7 +16545,7 @@
         <v>2</v>
       </c>
       <c r="N275" s="2">
-        <f t="shared" ref="N275:N338" si="14">D275*70</f>
+        <f t="shared" ref="N275:N338" si="15">D275*70</f>
         <v>140</v>
       </c>
     </row>
@@ -16565,11 +16572,11 @@
         <v>8.6406668351932616</v>
       </c>
       <c r="H276" s="2">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="I276" s="2">
         <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="I276" s="2">
-        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J276" s="2">
@@ -16585,7 +16592,7 @@
         <v>2</v>
       </c>
       <c r="N276" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
     </row>
@@ -16612,11 +16619,11 @@
         <v>8.6406668351932616</v>
       </c>
       <c r="H277" s="2">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="I277" s="2">
         <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="I277" s="2">
-        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J277" s="2">
@@ -16632,7 +16639,7 @@
         <v>2</v>
       </c>
       <c r="N277" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
     </row>
@@ -16659,11 +16666,11 @@
         <v>8.6406668351932616</v>
       </c>
       <c r="H278" s="2">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="I278" s="2">
         <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="I278" s="2">
-        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J278" s="2">
@@ -16679,7 +16686,7 @@
         <v>2</v>
       </c>
       <c r="N278" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
     </row>
@@ -16706,11 +16713,11 @@
         <v>38.819936652849137</v>
       </c>
       <c r="H279" s="2">
+        <f t="shared" si="14"/>
+        <v>4.97</v>
+      </c>
+      <c r="I279" s="2">
         <f t="shared" si="13"/>
-        <v>4.97</v>
-      </c>
-      <c r="I279" s="2">
-        <f t="shared" si="12"/>
         <v>14.2</v>
       </c>
       <c r="J279" s="2">
@@ -16726,7 +16733,7 @@
         <v>2</v>
       </c>
       <c r="N279" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>994</v>
       </c>
     </row>
@@ -16753,11 +16760,11 @@
         <v>38.819936652849137</v>
       </c>
       <c r="H280" s="2">
+        <f t="shared" si="14"/>
+        <v>4.97</v>
+      </c>
+      <c r="I280" s="2">
         <f t="shared" si="13"/>
-        <v>4.97</v>
-      </c>
-      <c r="I280" s="2">
-        <f t="shared" si="12"/>
         <v>14.2</v>
       </c>
       <c r="J280" s="2">
@@ -16773,7 +16780,7 @@
         <v>2</v>
       </c>
       <c r="N280" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>994</v>
       </c>
     </row>
@@ -16800,11 +16807,11 @@
         <v>38.819936652849137</v>
       </c>
       <c r="H281" s="2">
+        <f t="shared" si="14"/>
+        <v>4.97</v>
+      </c>
+      <c r="I281" s="2">
         <f t="shared" si="13"/>
-        <v>4.97</v>
-      </c>
-      <c r="I281" s="2">
-        <f t="shared" si="12"/>
         <v>14.2</v>
       </c>
       <c r="J281" s="2">
@@ -16820,7 +16827,7 @@
         <v>2</v>
       </c>
       <c r="N281" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>994</v>
       </c>
     </row>
@@ -16847,11 +16854,11 @@
         <v>23.173654412849181</v>
       </c>
       <c r="H282" s="2">
+        <f t="shared" si="14"/>
+        <v>15.749999999999998</v>
+      </c>
+      <c r="I282" s="2">
         <f t="shared" si="13"/>
-        <v>15.749999999999998</v>
-      </c>
-      <c r="I282" s="2">
-        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="J282" s="2">
@@ -16867,7 +16874,7 @@
         <v>2</v>
       </c>
       <c r="N282" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3150</v>
       </c>
     </row>
@@ -16894,11 +16901,11 @@
         <v>23.173654412849181</v>
       </c>
       <c r="H283" s="2">
+        <f t="shared" si="14"/>
+        <v>15.749999999999998</v>
+      </c>
+      <c r="I283" s="2">
         <f t="shared" si="13"/>
-        <v>15.749999999999998</v>
-      </c>
-      <c r="I283" s="2">
-        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="J283" s="2">
@@ -16914,7 +16921,7 @@
         <v>2</v>
       </c>
       <c r="N283" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3150</v>
       </c>
     </row>
@@ -16941,11 +16948,11 @@
         <v>23.173654412849181</v>
       </c>
       <c r="H284" s="2">
+        <f t="shared" si="14"/>
+        <v>15.749999999999998</v>
+      </c>
+      <c r="I284" s="2">
         <f t="shared" si="13"/>
-        <v>15.749999999999998</v>
-      </c>
-      <c r="I284" s="2">
-        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="J284" s="2">
@@ -16961,7 +16968,7 @@
         <v>2</v>
       </c>
       <c r="N284" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3150</v>
       </c>
     </row>
@@ -16988,11 +16995,11 @@
         <v>8.250855447920209</v>
       </c>
       <c r="H285" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I285" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I285" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J285" s="2">
@@ -17008,7 +17015,7 @@
         <v>2</v>
       </c>
       <c r="N285" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17035,11 +17042,11 @@
         <v>8.250855447920209</v>
       </c>
       <c r="H286" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I286" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I286" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J286" s="2">
@@ -17055,7 +17062,7 @@
         <v>2</v>
       </c>
       <c r="N286" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17082,11 +17089,11 @@
         <v>8.250855447920209</v>
       </c>
       <c r="H287" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I287" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I287" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J287" s="2">
@@ -17102,7 +17109,7 @@
         <v>2</v>
       </c>
       <c r="N287" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17129,11 +17136,11 @@
         <v>8.250855447920209</v>
       </c>
       <c r="H288" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I288" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I288" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J288" s="2">
@@ -17149,7 +17156,7 @@
         <v>2</v>
       </c>
       <c r="N288" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17176,11 +17183,11 @@
         <v>17.403653437849169</v>
       </c>
       <c r="H289" s="2">
+        <f t="shared" si="14"/>
+        <v>7.63</v>
+      </c>
+      <c r="I289" s="2">
         <f t="shared" si="13"/>
-        <v>7.63</v>
-      </c>
-      <c r="I289" s="2">
-        <f t="shared" si="12"/>
         <v>21.8</v>
       </c>
       <c r="J289" s="2">
@@ -17196,7 +17203,7 @@
         <v>2</v>
       </c>
       <c r="N289" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1526</v>
       </c>
     </row>
@@ -17223,11 +17230,11 @@
         <v>8.3660940973949494</v>
       </c>
       <c r="H290" s="2">
+        <f t="shared" si="14"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I290" s="2">
         <f t="shared" si="13"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I290" s="2">
-        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="J290" s="2">
@@ -17243,7 +17250,7 @@
         <v>2</v>
       </c>
       <c r="N290" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>189</v>
       </c>
     </row>
@@ -17270,11 +17277,11 @@
         <v>8.3660940973949494</v>
       </c>
       <c r="H291" s="2">
+        <f t="shared" si="14"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I291" s="2">
         <f t="shared" si="13"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I291" s="2">
-        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="J291" s="2">
@@ -17290,7 +17297,7 @@
         <v>2</v>
       </c>
       <c r="N291" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>189</v>
       </c>
     </row>
@@ -17317,11 +17324,11 @@
         <v>8.3660940973949494</v>
       </c>
       <c r="H292" s="2">
+        <f t="shared" si="14"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I292" s="2">
         <f t="shared" si="13"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I292" s="2">
-        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="J292" s="2">
@@ -17337,7 +17344,7 @@
         <v>2</v>
       </c>
       <c r="N292" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>189</v>
       </c>
     </row>
@@ -17364,11 +17371,11 @@
         <v>8.7202367276663821</v>
       </c>
       <c r="H293" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I293" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I293" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J293" s="2">
@@ -17384,7 +17391,7 @@
         <v>2</v>
       </c>
       <c r="N293" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17411,11 +17418,11 @@
         <v>8.7202367276663821</v>
       </c>
       <c r="H294" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I294" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I294" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J294" s="2">
@@ -17431,7 +17438,7 @@
         <v>2</v>
       </c>
       <c r="N294" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17458,11 +17465,11 @@
         <v>7.9191015068107964</v>
       </c>
       <c r="H295" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I295" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I295" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J295" s="2">
@@ -17478,7 +17485,7 @@
         <v>2</v>
       </c>
       <c r="N295" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -17505,11 +17512,11 @@
         <v>7.9191015068107964</v>
       </c>
       <c r="H296" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I296" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I296" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J296" s="2">
@@ -17525,7 +17532,7 @@
         <v>2</v>
       </c>
       <c r="N296" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -17552,11 +17559,11 @@
         <v>7.9191015068107964</v>
       </c>
       <c r="H297" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I297" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I297" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J297" s="2">
@@ -17572,7 +17579,7 @@
         <v>2</v>
       </c>
       <c r="N297" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -17599,11 +17606,11 @@
         <v>7.9191015068107964</v>
       </c>
       <c r="H298" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I298" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I298" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J298" s="2">
@@ -17619,7 +17626,7 @@
         <v>2</v>
       </c>
       <c r="N298" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -17646,11 +17653,11 @@
         <v>9.7402471873459895</v>
       </c>
       <c r="H299" s="2">
+        <f t="shared" si="14"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I299" s="2">
         <f t="shared" si="13"/>
-        <v>0.45499999999999996</v>
-      </c>
-      <c r="I299" s="2">
-        <f t="shared" si="12"/>
         <v>1.3</v>
       </c>
       <c r="J299" s="2">
@@ -17666,7 +17673,7 @@
         <v>2</v>
       </c>
       <c r="N299" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
     </row>
@@ -17693,11 +17700,11 @@
         <v>8.2726594012359982</v>
       </c>
       <c r="H300" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I300" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I300" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J300" s="2">
@@ -17713,7 +17720,7 @@
         <v>2</v>
       </c>
       <c r="N300" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17740,11 +17747,11 @@
         <v>3.9251624038491708</v>
       </c>
       <c r="H301" s="2">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="I301" s="2">
         <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="I301" s="2">
-        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J301" s="2">
@@ -17760,7 +17767,7 @@
         <v>2</v>
       </c>
       <c r="N301" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1400</v>
       </c>
     </row>
@@ -17787,11 +17794,11 @@
         <v>7.9314630461507507</v>
       </c>
       <c r="H302" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I302" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I302" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J302" s="2">
@@ -17807,7 +17814,7 @@
         <v>2</v>
       </c>
       <c r="N302" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17834,11 +17841,11 @@
         <v>7.9314630461507507</v>
       </c>
       <c r="H303" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I303" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I303" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J303" s="2">
@@ -17854,7 +17861,7 @@
         <v>2</v>
       </c>
       <c r="N303" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17881,11 +17888,11 @@
         <v>8.2337599989951595</v>
       </c>
       <c r="H304" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I304" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I304" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J304" s="2">
@@ -17901,7 +17908,7 @@
         <v>2</v>
       </c>
       <c r="N304" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17928,11 +17935,11 @@
         <v>8.2337599989951595</v>
       </c>
       <c r="H305" s="2">
+        <f t="shared" si="14"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I305" s="2">
         <f t="shared" si="13"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I305" s="2">
-        <f t="shared" si="12"/>
         <v>2.6</v>
       </c>
       <c r="J305" s="2">
@@ -17948,7 +17955,7 @@
         <v>2</v>
       </c>
       <c r="N305" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
     </row>
@@ -17975,11 +17982,11 @@
         <v>46.991469150849177</v>
       </c>
       <c r="H306" s="2">
+        <f t="shared" si="14"/>
+        <v>6.3</v>
+      </c>
+      <c r="I306" s="2">
         <f t="shared" si="13"/>
-        <v>6.3</v>
-      </c>
-      <c r="I306" s="2">
-        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="J306" s="2">
@@ -17995,7 +18002,7 @@
         <v>2</v>
       </c>
       <c r="N306" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1260</v>
       </c>
     </row>
@@ -18022,11 +18029,11 @@
         <v>26.138846497849158</v>
       </c>
       <c r="H307" s="2">
+        <f t="shared" si="14"/>
+        <v>24.15</v>
+      </c>
+      <c r="I307" s="2">
         <f t="shared" si="13"/>
-        <v>24.15</v>
-      </c>
-      <c r="I307" s="2">
-        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="J307" s="2">
@@ -18042,7 +18049,7 @@
         <v>2</v>
       </c>
       <c r="N307" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4830</v>
       </c>
     </row>
@@ -18069,11 +18076,11 @@
         <v>11.05625697484918</v>
       </c>
       <c r="H308" s="2">
+        <f t="shared" si="14"/>
+        <v>6.51</v>
+      </c>
+      <c r="I308" s="2">
         <f t="shared" si="13"/>
-        <v>6.51</v>
-      </c>
-      <c r="I308" s="2">
-        <f t="shared" si="12"/>
         <v>18.600000000000001</v>
       </c>
       <c r="J308" s="2">
@@ -18089,7 +18096,7 @@
         <v>2</v>
       </c>
       <c r="N308" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1302</v>
       </c>
     </row>
@@ -18116,11 +18123,11 @@
         <v>11.05625697484918</v>
       </c>
       <c r="H309" s="2">
+        <f t="shared" si="14"/>
+        <v>6.51</v>
+      </c>
+      <c r="I309" s="2">
         <f t="shared" si="13"/>
-        <v>6.51</v>
-      </c>
-      <c r="I309" s="2">
-        <f t="shared" si="12"/>
         <v>18.600000000000001</v>
       </c>
       <c r="J309" s="2">
@@ -18136,7 +18143,7 @@
         <v>2</v>
       </c>
       <c r="N309" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1302</v>
       </c>
     </row>
@@ -18163,11 +18170,11 @@
         <v>22.520236727666369</v>
       </c>
       <c r="H310" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I310" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I310" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J310" s="2">
@@ -18183,7 +18190,7 @@
         <v>2</v>
       </c>
       <c r="N310" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -18210,11 +18217,11 @@
         <v>18.582222812422849</v>
       </c>
       <c r="H311" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I311" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I311" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J311" s="2">
@@ -18230,7 +18237,7 @@
         <v>2</v>
       </c>
       <c r="N311" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -18257,11 +18264,11 @@
         <v>20.453190554358329</v>
       </c>
       <c r="H312" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I312" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I312" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J312" s="2">
@@ -18277,7 +18284,7 @@
         <v>2</v>
       </c>
       <c r="N312" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -18304,11 +18311,11 @@
         <v>18.129344887059151</v>
       </c>
       <c r="H313" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I313" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I313" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J313" s="2">
@@ -18324,7 +18331,7 @@
         <v>2</v>
       </c>
       <c r="N313" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -18351,11 +18358,11 @@
         <v>16.256999542510961</v>
       </c>
       <c r="H314" s="2">
+        <f t="shared" si="14"/>
+        <v>145.21499999999997</v>
+      </c>
+      <c r="I314" s="2">
         <f t="shared" si="13"/>
-        <v>145.21499999999997</v>
-      </c>
-      <c r="I314" s="2">
-        <f t="shared" si="12"/>
         <v>414.9</v>
       </c>
       <c r="J314" s="2">
@@ -18371,7 +18378,7 @@
         <v>3.17</v>
       </c>
       <c r="N314" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29043</v>
       </c>
     </row>
@@ -18398,11 +18405,11 @@
         <v>13.34823752462003</v>
       </c>
       <c r="H315" s="2">
+        <f t="shared" si="14"/>
+        <v>26.25</v>
+      </c>
+      <c r="I315" s="2">
         <f t="shared" si="13"/>
-        <v>26.25</v>
-      </c>
-      <c r="I315" s="2">
-        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="J315" s="2">
@@ -18418,7 +18425,7 @@
         <v>3.17</v>
       </c>
       <c r="N315" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5250</v>
       </c>
     </row>
@@ -18445,11 +18452,11 @@
         <v>14.14616198044615</v>
       </c>
       <c r="H316" s="2">
+        <f t="shared" si="14"/>
+        <v>145.21499999999997</v>
+      </c>
+      <c r="I316" s="2">
         <f t="shared" si="13"/>
-        <v>145.21499999999997</v>
-      </c>
-      <c r="I316" s="2">
-        <f t="shared" si="12"/>
         <v>414.9</v>
       </c>
       <c r="J316" s="2">
@@ -18465,7 +18472,7 @@
         <v>3.17</v>
       </c>
       <c r="N316" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29043</v>
       </c>
     </row>
@@ -18492,11 +18499,11 @@
         <v>12.184384823888079</v>
       </c>
       <c r="H317" s="2">
+        <f t="shared" si="14"/>
+        <v>215.95</v>
+      </c>
+      <c r="I317" s="2">
         <f t="shared" si="13"/>
-        <v>215.95</v>
-      </c>
-      <c r="I317" s="2">
-        <f t="shared" si="12"/>
         <v>617</v>
       </c>
       <c r="J317" s="2">
@@ -18512,7 +18519,7 @@
         <v>3.17</v>
       </c>
       <c r="N317" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43190</v>
       </c>
     </row>
@@ -18539,11 +18546,11 @@
         <v>21.193910669849181</v>
       </c>
       <c r="H318" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I318" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I318" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J318" s="2">
@@ -18559,7 +18566,7 @@
         <v>2</v>
       </c>
       <c r="N318" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -18586,11 +18593,11 @@
         <v>21.193910669849181</v>
       </c>
       <c r="H319" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I319" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I319" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J319" s="2">
@@ -18606,7 +18613,7 @@
         <v>2</v>
       </c>
       <c r="N319" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -18633,11 +18640,11 @@
         <v>21.193910669849181</v>
       </c>
       <c r="H320" s="2">
+        <f t="shared" si="14"/>
+        <v>21.174999999999997</v>
+      </c>
+      <c r="I320" s="2">
         <f t="shared" si="13"/>
-        <v>21.174999999999997</v>
-      </c>
-      <c r="I320" s="2">
-        <f t="shared" si="12"/>
         <v>60.5</v>
       </c>
       <c r="J320" s="2">
@@ -18653,7 +18660,7 @@
         <v>2</v>
       </c>
       <c r="N320" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4235</v>
       </c>
     </row>
@@ -18680,11 +18687,11 @@
         <v>13.686330991409109</v>
       </c>
       <c r="H321" s="2">
+        <f t="shared" si="14"/>
+        <v>144.89999999999998</v>
+      </c>
+      <c r="I321" s="2">
         <f t="shared" si="13"/>
-        <v>144.89999999999998</v>
-      </c>
-      <c r="I321" s="2">
-        <f t="shared" si="12"/>
         <v>414</v>
       </c>
       <c r="J321" s="2">
@@ -18700,7 +18707,7 @@
         <v>3.17</v>
       </c>
       <c r="N321" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28980</v>
       </c>
     </row>
@@ -18727,11 +18734,11 @@
         <v>8.0823102691068431</v>
       </c>
       <c r="H322" s="2">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="I322" s="2">
         <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="I322" s="2">
-        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J322" s="2">
@@ -18747,7 +18754,7 @@
         <v>2</v>
       </c>
       <c r="N322" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
     </row>
@@ -18774,11 +18781,11 @@
         <v>8.0823102691068431</v>
       </c>
       <c r="H323" s="2">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="I323" s="2">
         <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="I323" s="2">
-        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J323" s="2">
@@ -18794,7 +18801,7 @@
         <v>2</v>
       </c>
       <c r="N323" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
     </row>
@@ -18821,11 +18828,11 @@
         <v>8.0823102691068431</v>
       </c>
       <c r="H324" s="2">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="I324" s="2">
         <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="I324" s="2">
-        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J324" s="2">
@@ -18841,7 +18848,7 @@
         <v>2</v>
       </c>
       <c r="N324" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
     </row>
@@ -18868,11 +18875,11 @@
         <v>28.359512335849171</v>
       </c>
       <c r="H325" s="2">
+        <f t="shared" si="14"/>
+        <v>6.6499999999999995</v>
+      </c>
+      <c r="I325" s="2">
         <f t="shared" si="13"/>
-        <v>6.6499999999999995</v>
-      </c>
-      <c r="I325" s="2">
-        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="J325" s="2">
@@ -18888,7 +18895,7 @@
         <v>2</v>
       </c>
       <c r="N325" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1330</v>
       </c>
     </row>
@@ -18915,11 +18922,11 @@
         <v>10.498231226291029</v>
       </c>
       <c r="H326" s="2">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="I326" s="2">
         <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="I326" s="2">
-        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J326" s="2">
@@ -18935,7 +18942,7 @@
         <v>2</v>
       </c>
       <c r="N326" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
     </row>
@@ -18962,11 +18969,11 @@
         <v>8.1752492832004648</v>
       </c>
       <c r="H327" s="2">
+        <f t="shared" si="14"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I327" s="2">
         <f t="shared" si="13"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I327" s="2">
-        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="J327" s="2">
@@ -18982,7 +18989,7 @@
         <v>2</v>
       </c>
       <c r="N327" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>189</v>
       </c>
     </row>
@@ -19009,11 +19016,11 @@
         <v>8.1752492832004648</v>
       </c>
       <c r="H328" s="2">
+        <f t="shared" si="14"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I328" s="2">
         <f t="shared" si="13"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I328" s="2">
-        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="J328" s="2">
@@ -19029,7 +19036,7 @@
         <v>2</v>
       </c>
       <c r="N328" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>189</v>
       </c>
     </row>
@@ -19056,11 +19063,11 @@
         <v>8.1752492832004648</v>
       </c>
       <c r="H329" s="2">
+        <f t="shared" si="14"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I329" s="2">
         <f t="shared" si="13"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I329" s="2">
-        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="J329" s="2">
@@ -19076,7 +19083,7 @@
         <v>2</v>
       </c>
       <c r="N329" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>189</v>
       </c>
     </row>
@@ -19103,11 +19110,11 @@
         <v>23.734312974000702</v>
       </c>
       <c r="H330" s="2">
+        <f t="shared" si="14"/>
+        <v>4.6199999999999992</v>
+      </c>
+      <c r="I330" s="2">
         <f t="shared" si="13"/>
-        <v>4.6199999999999992</v>
-      </c>
-      <c r="I330" s="2">
-        <f t="shared" si="12"/>
         <v>13.2</v>
       </c>
       <c r="J330" s="2">
@@ -19123,7 +19130,7 @@
         <v>2</v>
       </c>
       <c r="N330" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>924</v>
       </c>
     </row>
@@ -19150,11 +19157,11 @@
         <v>14.827633730849159</v>
       </c>
       <c r="H331" s="2">
+        <f t="shared" si="14"/>
+        <v>7.419999999999999</v>
+      </c>
+      <c r="I331" s="2">
         <f t="shared" si="13"/>
-        <v>7.419999999999999</v>
-      </c>
-      <c r="I331" s="2">
-        <f t="shared" si="12"/>
         <v>21.2</v>
       </c>
       <c r="J331" s="2">
@@ -19170,7 +19177,7 @@
         <v>2</v>
       </c>
       <c r="N331" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1484</v>
       </c>
     </row>
@@ -19197,11 +19204,11 @@
         <v>16.101910784994711</v>
       </c>
       <c r="H332" s="2">
+        <f t="shared" si="14"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="I332" s="2">
         <f t="shared" si="13"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="I332" s="2">
-        <f t="shared" si="12"/>
         <v>2.8</v>
       </c>
       <c r="J332" s="2">
@@ -19217,7 +19224,7 @@
         <v>2</v>
       </c>
       <c r="N332" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
     </row>
@@ -19244,11 +19251,11 @@
         <v>16.101910784994711</v>
       </c>
       <c r="H333" s="2">
+        <f t="shared" si="14"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="I333" s="2">
         <f t="shared" si="13"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="I333" s="2">
-        <f t="shared" si="12"/>
         <v>2.8</v>
       </c>
       <c r="J333" s="2">
@@ -19264,7 +19271,7 @@
         <v>2</v>
       </c>
       <c r="N333" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
     </row>
@@ -19291,11 +19298,11 @@
         <v>16.101910784994711</v>
       </c>
       <c r="H334" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97999999999999987</v>
       </c>
       <c r="I334" s="2">
-        <f t="shared" ref="I334:I375" si="15">D334</f>
+        <f t="shared" ref="I334:I375" si="16">D334</f>
         <v>2.8</v>
       </c>
       <c r="J334" s="2">
@@ -19311,7 +19318,7 @@
         <v>2</v>
       </c>
       <c r="N334" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
     </row>
@@ -19338,11 +19345,11 @@
         <v>16.101910784994711</v>
       </c>
       <c r="H335" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97999999999999987</v>
       </c>
       <c r="I335" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="J335" s="2">
@@ -19358,7 +19365,7 @@
         <v>2</v>
       </c>
       <c r="N335" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
     </row>
@@ -19385,11 +19392,11 @@
         <v>16.101910784994711</v>
       </c>
       <c r="H336" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97999999999999987</v>
       </c>
       <c r="I336" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="J336" s="2">
@@ -19405,7 +19412,7 @@
         <v>2</v>
       </c>
       <c r="N336" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
     </row>
@@ -19432,11 +19439,11 @@
         <v>9.1547405534339141</v>
       </c>
       <c r="H337" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>36.75</v>
       </c>
       <c r="I337" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="J337" s="2">
@@ -19452,7 +19459,7 @@
         <v>2</v>
       </c>
       <c r="N337" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7350</v>
       </c>
     </row>
@@ -19479,11 +19486,11 @@
         <v>9.1547405534339106</v>
       </c>
       <c r="H338" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29.749999999999996</v>
       </c>
       <c r="I338" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>85</v>
       </c>
       <c r="J338" s="2">
@@ -19499,7 +19506,7 @@
         <v>2</v>
       </c>
       <c r="N338" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5950</v>
       </c>
     </row>
@@ -19526,11 +19533,11 @@
         <v>9.1547405534339106</v>
       </c>
       <c r="H339" s="2">
-        <f t="shared" ref="H339:H367" si="16">0.35*D339</f>
+        <f t="shared" ref="H339:H367" si="17">0.35*D339</f>
         <v>29.749999999999996</v>
       </c>
       <c r="I339" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>85</v>
       </c>
       <c r="J339" s="2">
@@ -19546,7 +19553,7 @@
         <v>2</v>
       </c>
       <c r="N339" s="2">
-        <f t="shared" ref="N339:N375" si="17">D339*70</f>
+        <f t="shared" ref="N339:N375" si="18">D339*70</f>
         <v>5950</v>
       </c>
     </row>
@@ -19573,11 +19580,11 @@
         <v>9.1547405534339106</v>
       </c>
       <c r="H340" s="2">
+        <f t="shared" si="17"/>
+        <v>29.749999999999996</v>
+      </c>
+      <c r="I340" s="2">
         <f t="shared" si="16"/>
-        <v>29.749999999999996</v>
-      </c>
-      <c r="I340" s="2">
-        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="J340" s="2">
@@ -19593,7 +19600,7 @@
         <v>2</v>
       </c>
       <c r="N340" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5950</v>
       </c>
     </row>
@@ -19620,11 +19627,11 @@
         <v>7.7761086528491754</v>
       </c>
       <c r="H341" s="2">
+        <f t="shared" si="17"/>
+        <v>29.749999999999996</v>
+      </c>
+      <c r="I341" s="2">
         <f t="shared" si="16"/>
-        <v>29.749999999999996</v>
-      </c>
-      <c r="I341" s="2">
-        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="J341" s="2">
@@ -19640,7 +19647,7 @@
         <v>2</v>
       </c>
       <c r="N341" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5950</v>
       </c>
     </row>
@@ -19667,11 +19674,11 @@
         <v>7.7761086528491754</v>
       </c>
       <c r="H342" s="2">
+        <f t="shared" si="17"/>
+        <v>29.749999999999996</v>
+      </c>
+      <c r="I342" s="2">
         <f t="shared" si="16"/>
-        <v>29.749999999999996</v>
-      </c>
-      <c r="I342" s="2">
-        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="J342" s="2">
@@ -19687,7 +19694,7 @@
         <v>2</v>
       </c>
       <c r="N342" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5950</v>
       </c>
     </row>
@@ -19714,11 +19721,11 @@
         <v>7.7761086528491719</v>
       </c>
       <c r="H343" s="2">
+        <f t="shared" si="17"/>
+        <v>0.21</v>
+      </c>
+      <c r="I343" s="2">
         <f t="shared" si="16"/>
-        <v>0.21</v>
-      </c>
-      <c r="I343" s="2">
-        <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
       <c r="J343" s="2">
@@ -19734,7 +19741,7 @@
         <v>2</v>
       </c>
       <c r="N343" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
     </row>
@@ -19761,11 +19768,11 @@
         <v>16.77823926884918</v>
       </c>
       <c r="H344" s="2">
+        <f t="shared" si="17"/>
+        <v>7.63</v>
+      </c>
+      <c r="I344" s="2">
         <f t="shared" si="16"/>
-        <v>7.63</v>
-      </c>
-      <c r="I344" s="2">
-        <f t="shared" si="15"/>
         <v>21.8</v>
       </c>
       <c r="J344" s="2">
@@ -19781,7 +19788,7 @@
         <v>2</v>
       </c>
       <c r="N344" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1526</v>
       </c>
     </row>
@@ -19808,11 +19815,11 @@
         <v>8.3455055448706794</v>
       </c>
       <c r="H345" s="2">
+        <f t="shared" si="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="I345" s="2">
         <f t="shared" si="16"/>
-        <v>0.7</v>
-      </c>
-      <c r="I345" s="2">
-        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J345" s="2">
@@ -19828,7 +19835,7 @@
         <v>2</v>
       </c>
       <c r="N345" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>140</v>
       </c>
     </row>
@@ -19855,11 +19862,11 @@
         <v>8.3455055448706794</v>
       </c>
       <c r="H346" s="2">
+        <f t="shared" si="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="I346" s="2">
         <f t="shared" si="16"/>
-        <v>0.7</v>
-      </c>
-      <c r="I346" s="2">
-        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J346" s="2">
@@ -19875,7 +19882,7 @@
         <v>2</v>
       </c>
       <c r="N346" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>140</v>
       </c>
     </row>
@@ -19902,11 +19909,11 @@
         <v>8.1991977564898182</v>
       </c>
       <c r="H347" s="2">
+        <f t="shared" si="17"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I347" s="2">
         <f t="shared" si="16"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I347" s="2">
-        <f t="shared" si="15"/>
         <v>2.6</v>
       </c>
       <c r="J347" s="2">
@@ -19922,7 +19929,7 @@
         <v>2</v>
       </c>
       <c r="N347" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>182</v>
       </c>
     </row>
@@ -19949,11 +19956,11 @@
         <v>8.1991977564898182</v>
       </c>
       <c r="H348" s="2">
+        <f t="shared" si="17"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I348" s="2">
         <f t="shared" si="16"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I348" s="2">
-        <f t="shared" si="15"/>
         <v>2.6</v>
       </c>
       <c r="J348" s="2">
@@ -19969,7 +19976,7 @@
         <v>2</v>
       </c>
       <c r="N348" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>182</v>
       </c>
     </row>
@@ -19996,11 +20003,11 @@
         <v>24.05385001812968</v>
       </c>
       <c r="H349" s="2">
+        <f t="shared" si="17"/>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I349" s="2">
         <f t="shared" si="16"/>
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="I349" s="2">
-        <f t="shared" si="15"/>
         <v>23.2</v>
       </c>
       <c r="J349" s="2">
@@ -20016,7 +20023,7 @@
         <v>2</v>
       </c>
       <c r="N349" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1624</v>
       </c>
     </row>
@@ -20043,11 +20050,11 @@
         <v>22.679816364984799</v>
       </c>
       <c r="H350" s="2">
+        <f t="shared" si="17"/>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I350" s="2">
         <f t="shared" si="16"/>
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="I350" s="2">
-        <f t="shared" si="15"/>
         <v>23.2</v>
       </c>
       <c r="J350" s="2">
@@ -20063,7 +20070,7 @@
         <v>2</v>
       </c>
       <c r="N350" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1624</v>
       </c>
     </row>
@@ -20090,11 +20097,11 @@
         <v>24.57626839434041</v>
       </c>
       <c r="H351" s="2">
+        <f t="shared" si="17"/>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I351" s="2">
         <f t="shared" si="16"/>
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="I351" s="2">
-        <f t="shared" si="15"/>
         <v>23.2</v>
       </c>
       <c r="J351" s="2">
@@ -20110,7 +20117,7 @@
         <v>2</v>
       </c>
       <c r="N351" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1624</v>
       </c>
     </row>
@@ -20137,11 +20144,11 @@
         <v>8.3995810392687513</v>
       </c>
       <c r="H352" s="2">
+        <f t="shared" si="17"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I352" s="2">
         <f t="shared" si="16"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I352" s="2">
-        <f t="shared" si="15"/>
         <v>2.7</v>
       </c>
       <c r="J352" s="2">
@@ -20157,7 +20164,7 @@
         <v>2</v>
       </c>
       <c r="N352" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>189</v>
       </c>
     </row>
@@ -20184,11 +20191,11 @@
         <v>8.3995810392687513</v>
       </c>
       <c r="H353" s="2">
+        <f t="shared" si="17"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I353" s="2">
         <f t="shared" si="16"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I353" s="2">
-        <f t="shared" si="15"/>
         <v>2.7</v>
       </c>
       <c r="J353" s="2">
@@ -20204,7 +20211,7 @@
         <v>2</v>
       </c>
       <c r="N353" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>189</v>
       </c>
     </row>
@@ -20231,11 +20238,11 @@
         <v>7.7412295546877594</v>
       </c>
       <c r="H354" s="2">
+        <f t="shared" si="17"/>
+        <v>0.875</v>
+      </c>
+      <c r="I354" s="2">
         <f t="shared" si="16"/>
-        <v>0.875</v>
-      </c>
-      <c r="I354" s="2">
-        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="J354" s="2">
@@ -20251,7 +20258,7 @@
         <v>2</v>
       </c>
       <c r="N354" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>175</v>
       </c>
     </row>
@@ -20278,11 +20285,11 @@
         <v>7.7412295546877594</v>
       </c>
       <c r="H355" s="2">
+        <f t="shared" si="17"/>
+        <v>0.875</v>
+      </c>
+      <c r="I355" s="2">
         <f t="shared" si="16"/>
-        <v>0.875</v>
-      </c>
-      <c r="I355" s="2">
-        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="J355" s="2">
@@ -20298,7 +20305,7 @@
         <v>2</v>
       </c>
       <c r="N355" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>175</v>
       </c>
     </row>
@@ -20325,11 +20332,11 @@
         <v>7.7412295546877594</v>
       </c>
       <c r="H356" s="2">
+        <f t="shared" si="17"/>
+        <v>0.875</v>
+      </c>
+      <c r="I356" s="2">
         <f t="shared" si="16"/>
-        <v>0.875</v>
-      </c>
-      <c r="I356" s="2">
-        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="J356" s="2">
@@ -20345,7 +20352,7 @@
         <v>2</v>
       </c>
       <c r="N356" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>175</v>
       </c>
     </row>
@@ -20372,11 +20379,11 @@
         <v>7.7412295546877594</v>
       </c>
       <c r="H357" s="2">
+        <f t="shared" si="17"/>
+        <v>0.875</v>
+      </c>
+      <c r="I357" s="2">
         <f t="shared" si="16"/>
-        <v>0.875</v>
-      </c>
-      <c r="I357" s="2">
-        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="J357" s="2">
@@ -20392,7 +20399,7 @@
         <v>2</v>
       </c>
       <c r="N357" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>175</v>
       </c>
     </row>
@@ -20419,11 +20426,11 @@
         <v>34.553296073849161</v>
       </c>
       <c r="H358" s="2">
+        <f t="shared" si="17"/>
+        <v>6.51</v>
+      </c>
+      <c r="I358" s="2">
         <f t="shared" si="16"/>
-        <v>6.51</v>
-      </c>
-      <c r="I358" s="2">
-        <f t="shared" si="15"/>
         <v>18.600000000000001</v>
       </c>
       <c r="J358" s="2">
@@ -20439,7 +20446,7 @@
         <v>2</v>
       </c>
       <c r="N358" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1302</v>
       </c>
     </row>
@@ -20466,11 +20473,11 @@
         <v>10.157936969053249</v>
       </c>
       <c r="H359" s="2">
+        <f t="shared" si="17"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I359" s="2">
         <f t="shared" si="16"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I359" s="2">
-        <f t="shared" si="15"/>
         <v>2.7</v>
       </c>
       <c r="J359" s="2">
@@ -20486,7 +20493,7 @@
         <v>2</v>
       </c>
       <c r="N359" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>189</v>
       </c>
     </row>
@@ -20513,11 +20520,11 @@
         <v>10.157936969053249</v>
       </c>
       <c r="H360" s="2">
+        <f t="shared" si="17"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I360" s="2">
         <f t="shared" si="16"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I360" s="2">
-        <f t="shared" si="15"/>
         <v>2.7</v>
       </c>
       <c r="J360" s="2">
@@ -20533,7 +20540,7 @@
         <v>2</v>
       </c>
       <c r="N360" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>189</v>
       </c>
     </row>
@@ -20560,11 +20567,11 @@
         <v>12.784602044399101</v>
       </c>
       <c r="H361" s="2">
+        <f t="shared" si="17"/>
+        <v>17.5</v>
+      </c>
+      <c r="I361" s="2">
         <f t="shared" si="16"/>
-        <v>17.5</v>
-      </c>
-      <c r="I361" s="2">
-        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="J361" s="2">
@@ -20580,7 +20587,7 @@
         <v>3.17</v>
       </c>
       <c r="N361" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3500</v>
       </c>
     </row>
@@ -20607,11 +20614,11 @@
         <v>12.583437996487</v>
       </c>
       <c r="H362" s="2">
+        <f t="shared" si="17"/>
+        <v>17.5</v>
+      </c>
+      <c r="I362" s="2">
         <f t="shared" si="16"/>
-        <v>17.5</v>
-      </c>
-      <c r="I362" s="2">
-        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="J362" s="2">
@@ -20627,7 +20634,7 @@
         <v>3.17</v>
       </c>
       <c r="N362" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3500</v>
       </c>
     </row>
@@ -20654,11 +20661,11 @@
         <v>13.425222252703421</v>
       </c>
       <c r="H363" s="2">
+        <f t="shared" si="17"/>
+        <v>39.76</v>
+      </c>
+      <c r="I363" s="2">
         <f t="shared" si="16"/>
-        <v>39.76</v>
-      </c>
-      <c r="I363" s="2">
-        <f t="shared" si="15"/>
         <v>113.6</v>
       </c>
       <c r="J363" s="2">
@@ -20674,7 +20681,7 @@
         <v>3.17</v>
       </c>
       <c r="N363" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7952</v>
       </c>
     </row>
@@ -20701,11 +20708,11 @@
         <v>10.07315738577673</v>
       </c>
       <c r="H364" s="2">
+        <f t="shared" si="17"/>
+        <v>221.33999999999997</v>
+      </c>
+      <c r="I364" s="2">
         <f t="shared" si="16"/>
-        <v>221.33999999999997</v>
-      </c>
-      <c r="I364" s="2">
-        <f t="shared" si="15"/>
         <v>632.4</v>
       </c>
       <c r="J364" s="2">
@@ -20721,7 +20728,7 @@
         <v>3.17</v>
       </c>
       <c r="N364" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>44268</v>
       </c>
     </row>
@@ -20748,11 +20755,11 @@
         <v>9.8191614588491714</v>
       </c>
       <c r="H365" s="2">
+        <f t="shared" si="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="I365" s="2">
         <f t="shared" si="16"/>
-        <v>0.7</v>
-      </c>
-      <c r="I365" s="2">
-        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J365" s="2">
@@ -20768,7 +20775,7 @@
         <v>2</v>
       </c>
       <c r="N365" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>140</v>
       </c>
     </row>
@@ -20795,11 +20802,11 @@
         <v>9.8191614588491714</v>
       </c>
       <c r="H366" s="2">
+        <f t="shared" si="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="I366" s="2">
         <f t="shared" si="16"/>
-        <v>0.7</v>
-      </c>
-      <c r="I366" s="2">
-        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J366" s="2">
@@ -20815,7 +20822,7 @@
         <v>2</v>
       </c>
       <c r="N366" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>140</v>
       </c>
     </row>
@@ -20842,11 +20849,11 @@
         <v>19.95030899984916</v>
       </c>
       <c r="H367" s="2">
+        <f t="shared" si="17"/>
+        <v>7.1399999999999988</v>
+      </c>
+      <c r="I367" s="2">
         <f t="shared" si="16"/>
-        <v>7.1399999999999988</v>
-      </c>
-      <c r="I367" s="2">
-        <f t="shared" si="15"/>
         <v>20.399999999999999</v>
       </c>
       <c r="J367" s="2">
@@ -20862,7 +20869,7 @@
         <v>2</v>
       </c>
       <c r="N367" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1428</v>
       </c>
     </row>
@@ -20892,7 +20899,7 @@
         <v>0</v>
       </c>
       <c r="I368" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="J368" s="2">
@@ -20908,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="N368" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>700000</v>
       </c>
     </row>
@@ -20938,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="I369" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="J369" s="2">
@@ -20954,7 +20961,7 @@
         <v>0</v>
       </c>
       <c r="N369" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>700000</v>
       </c>
     </row>
@@ -20984,7 +20991,7 @@
         <v>0</v>
       </c>
       <c r="I370" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="J370" s="2">
@@ -21000,7 +21007,7 @@
         <v>0</v>
       </c>
       <c r="N370" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>700000</v>
       </c>
     </row>
@@ -21030,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="I371" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="J371" s="2">
@@ -21046,7 +21053,7 @@
         <v>0</v>
       </c>
       <c r="N371" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>700000</v>
       </c>
     </row>
@@ -21076,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="I372" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="J372" s="2">
@@ -21092,7 +21099,7 @@
         <v>0</v>
       </c>
       <c r="N372" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>700000</v>
       </c>
     </row>
@@ -21122,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="I373" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="J373" s="2">
@@ -21138,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="N373" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>700000</v>
       </c>
     </row>
@@ -21168,7 +21175,7 @@
         <v>0</v>
       </c>
       <c r="I374" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="J374" s="2">
@@ -21184,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>700000</v>
       </c>
     </row>
@@ -21214,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="I375" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="J375" s="2">
@@ -21230,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="N375" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>700000</v>
       </c>
     </row>

--- a/Model_setup/NEISO_data_file/generators.xlsx
+++ b/Model_setup/NEISO_data_file/generators.xlsx
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:N375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -4497,7 +4497,7 @@
         <v>5.6</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" ref="I14:I77" si="2">D19</f>
+        <f t="shared" ref="I19:I77" si="2">D19</f>
         <v>16</v>
       </c>
       <c r="J19" s="2">
